--- a/files/plex.xlsx
+++ b/files/plex.xlsx
@@ -50,54 +50,69 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="70">
   <si>
+    <t>figure</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>album</t>
+  </si>
+  <si>
+    <t>https://photos.google.com/album/AF1QipMbEdlERX_3ILLPzXk6oniNARKvbKptwn2BK5n4</t>
+  </si>
+  <si>
+    <t>fbinfo</t>
+  </si>
+  <si>
+    <t>Datos mínimos y obligatorios en el hoja de información (info) del libro de campo o *fieldbook*</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/i3lkAnwH6ZppD_lsPomprCZx2McbsMFXnLMNaQltElE5tYCSdck0S5UJhgVii08DmOaNgoxmqzNhg7VrSELwWGvOFhFrT_K06GbloOS1nfq_FAhKFxLCV9u62beo5_xGOTlWVxED1BL1DfQuGL5ZLMLlZy0Ebn_p7MYx7y5APwzDC2ZkcT-KmTiVh93HJqUN4wO-Jexg4yCKSAL8XXgH-2r0qESfdYjN55E4veNCJi6tmT17wUI_zNozh7uPtcGPQ3Xra6YSginN6n1X2w6Pp-to0FqeR_ErZ_Ava-qo7AErLf3TpFAM7ZAC1iEsofKd1x1LtXTNX0C5ICnH2qtheBx05eyJ1nxuQ0E-70qO7VYRT3YlcmP2TSCTE5sBGj81FCi9ib5XJI3ldNLGt4DanB7D8qgIh6lflX_UHJrEOTLLz8k3aa7TI3u0-FG2n7MWztsuBWd1SY10utano04LGIpMkzXS_mBHXJgW5U61_w8IbDCnmC44yjjAv4lESoE0ituYTdUCQs2RvpN1Mk2Zfa2J7bLpleS95Lrk4eUAqBxQ1pQWbKtsh76twUHCf9h12TyUWoiT0LWF0BX-sMVG1Ek_U_MWuClkwBTtZ0ZBpExYjDqDUxnpp-MVAWDbnH0bA9vHBtdVtUlg3vJ_DFpNcK5WEj5XnpdmbZGBAWMRiuDGHJKpsCdvMVg=w1208-h506-no</t>
+  </si>
+  <si>
     <t>table</t>
   </si>
   <si>
-    <t>figure</t>
+    <t>note</t>
+  </si>
+  <si>
+    <t>dse</t>
+  </si>
+  <si>
+    <t>Información básica para el experimento</t>
+  </si>
+  <si>
+    <t>flb</t>
+  </si>
+  <si>
+    <t>Imagen insertada en el libro de colecta de datos para la toma de información experimental</t>
+  </si>
+  <si>
+    <t>vrnmt</t>
+  </si>
+  <si>
+    <t>Ejemplo de los nombres de las variables para el libro de colecta de datos.</t>
   </si>
   <si>
     <t>Variables</t>
   </si>
   <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>dse</t>
-  </si>
-  <si>
     <t>Abbreviation</t>
   </si>
   <si>
     <t>Units/Class</t>
   </si>
   <si>
-    <t>url</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
     <t>Bar code</t>
   </si>
   <si>
-    <t>Información básica para el experimento</t>
-  </si>
-  <si>
-    <t>flb</t>
-  </si>
-  <si>
-    <t>Imagen insertada en el libro de colecta de datos para la toma de información experimental</t>
-  </si>
-  <si>
-    <t>vrnmt</t>
-  </si>
-  <si>
-    <t>album</t>
-  </si>
-  <si>
     <t>bar_code</t>
   </si>
   <si>
@@ -113,9 +128,6 @@
     <t>plots</t>
   </si>
   <si>
-    <t>Ejemplo de los nombres de las variables para el libro de colecta de datos.</t>
-  </si>
-  <si>
     <t>Unique identification for each EU</t>
   </si>
   <si>
@@ -125,9 +137,6 @@
     <t>block</t>
   </si>
   <si>
-    <t>https://photos.google.com/album/AF1QipMbEdlERX_3ILLPzXk6oniNARKvbKptwn2BK5n4</t>
-  </si>
-  <si>
     <t>4 repetitions</t>
   </si>
   <si>
@@ -140,18 +149,48 @@
     <t>13 imbibition time each 2 hours</t>
   </si>
   <si>
-    <t>fbinfo</t>
-  </si>
-  <si>
-    <t>Datos mínimos y obligatorios en el hoja de información (info) del libro de campo o *fieldbook*</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/i3lkAnwH6ZppD_lsPomprCZx2McbsMFXnLMNaQltElE5tYCSdck0S5UJhgVii08DmOaNgoxmqzNhg7VrSELwWGvOFhFrT_K06GbloOS1nfq_FAhKFxLCV9u62beo5_xGOTlWVxED1BL1DfQuGL5ZLMLlZy0Ebn_p7MYx7y5APwzDC2ZkcT-KmTiVh93HJqUN4wO-Jexg4yCKSAL8XXgH-2r0qESfdYjN55E4veNCJi6tmT17wUI_zNozh7uPtcGPQ3Xra6YSginN6n1X2w6Pp-to0FqeR_ErZ_Ava-qo7AErLf3TpFAM7ZAC1iEsofKd1x1LtXTNX0C5ICnH2qtheBx05eyJ1nxuQ0E-70qO7VYRT3YlcmP2TSCTE5sBGj81FCi9ib5XJI3ldNLGt4DanB7D8qgIh6lflX_UHJrEOTLLz8k3aa7TI3u0-FG2n7MWztsuBWd1SY10utano04LGIpMkzXS_mBHXJgW5U61_w8IbDCnmC44yjjAv4lESoE0ituYTdUCQs2RvpN1Mk2Zfa2J7bLpleS95Lrk4eUAqBxQ1pQWbKtsh76twUHCf9h12TyUWoiT0LWF0BX-sMVG1Ek_U_MWuClkwBTtZ0ZBpExYjDqDUxnpp-MVAWDbnH0bA9vHBtdVtUlg3vJ_DFpNcK5WEj5XnpdmbZGBAWMRiuDGHJKpsCdvMVg=w1208-h506-no</t>
+    <t>Var_01</t>
+  </si>
+  <si>
+    <t>fbvar</t>
+  </si>
+  <si>
+    <t>Ejemplo de como debe estructurarse la pestaña de las variables (var)</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/GBgsOysr51d6vzcN1Z02oXfV58t1Mx9mqH0WfcsQoYwGv1FPiOr0Y0Dgl9wj2GOliJx9MGujcuElLIQS4fAJk4vVF92_xOQnPB_WhxX82I65B8VGKg7Gdn7f12I0LR4KK3P7rlEuGjVLBGrsgbvCMEoBAO_9EjtBTdyMbDkSdQBULvSoeb1UQHef7LH1lVrxPT84UhjG9Qd6HaAResPdeWNpI7Ug6AYzfksg_LItypOg0EZpByDh4WnEAFc5nTlZuV_DGPFfGpoeNhBEWbQsZMaiJD9Ow1m-OH69fR_agREMxeFSvIZcbiHgz9iF7zlVTAotViOh6uiLJp7q5Evws4x6y-xUSzs1QxTXzAstBhKJPQKHHkCYcQ4gV39RbBCh1u4T1qc1Uor7ZCtcj70WULRGHn-EWk8M006y3cV8EbNg1glH2rAlQJckkCu1fUGk8JS36d5ajUqkzqOnyc4Dunlk5M0PIYJDxjaRiuxuSgoTfDjSYq68n57SkdWoFAqVBF9flPyDO0bxakZxF4TXRzXP7dsQcEmMnIoTrcfWUNf-B78RZj8b8Fbu01O3Vt80USmDemx6-bDlKF9bQbtvqgJgufvMQk7OY53KrQKcXZfPoEamtI_-2DCNwqM4R4UwEaZoQejjtpdgfjYY11QrxT8cJmO8EUWMh4EyQ4BdTr6mj8h1-cej2mk=w924-h546-no</t>
   </si>
   <si>
     <t>Nombre de la variable</t>
   </si>
   <si>
+    <t>fbtmpl</t>
+  </si>
+  <si>
+    <t>Proceso de como crear una copia de la plantilla del libro de campo o fieldbook</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/dACRPGeCWzh1R3CV7uRH3uK56imAYGX5r913fCaVrBV9pC30nB_KbRs8J4vkiO7j7YqyZc2m61fEo2OpTtPqlrb90eYpcMbLlm7l7Rm8QJYB1tCd4ONOjQqMGRnjxmhBFZGLTyVGhH6JNfbZnJQHsgW237D62JNoDhgxnboAntYBB99hKoqUG1bpO20FWf-NdblnmBMKGKiR_ccpS2CYyVCSawFzKiVfL8uDhQrYazv6CnVGOPAZym8dY_YqdcXSCo3LiqxaEoFBOsprAbwS_yAWJpSfNG1sYDUZhi1FkoZA7cbbKrAGrvRDshgSaZ9LHP4B9ARNgtfPP0lNEW20ydAjPYEAeBFLyPxpa8QV-m7s62e_BSeOJ_KNs6ZGZg-5fde5AG84HwXQvjopzsn6NFZ5Eia_LmYWrzbcWVF9ByZaBOixvrSgIlSImAfn2-a990Wb1VFETQn6YMBwPKnJWPis1Wc-jY3ZkaSjh9bzkIFld5LtoxeDt6FabdQagcpR5LOKMv364AEtGF4kiRBvyHBsVptitULm92nPshRoEhvMQTtQ-ByrkTIWUBVS9vnGRwV1D2x4TxLByFwjilgsBsF1HTNwKNNI9h62ZZ4YIiva6hyki6fRJl6flkCzza-5X9DSsaVnwaY_y4JreURFPuvNg8oIzbTnkWE-2oJQzWCHQcDeUTE7LDY=w1036-h559-no</t>
+  </si>
+  <si>
+    <t>conflbl</t>
+  </si>
+  <si>
+    <t>Configuración de modelo base para las etiqueta</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/LEQehxv7RcUbiIrS-lenkH_WiUu2CANG2SSAzIpxmZhGbTTDVSrCFQIezI5NbKMvpC23Rz38NrO9NDpaYLNwsAqNJwxzW83MGHXoYIW2DIv3dweMFOrjUwoK8TdaqPCQHbfKSoe0zHG4XvoioUVssqmYbFdjcAvcaaxco4R9bHmSnbMYegwvJS6_wKVQlf-hMMNcgHmQWiLUMIIIXS23OapCx0X6K7fTMpQHNKcpiC6QxefpO29vM0tq7o7SAnb1JNmK7Q9GgliokisFdRSm5qnDXUuolaU-ZiaJt-n8WQ0yNgpWEhhkKqiSM8OCFp1ncWbhtBFt0XsfazlSsjI3I2HwqN3bvHDWHAh0Oyx9b_yk4gUIEb2Hlc_wG2OKkOufi5jvMO4R0u4hWWPvssvtsLgho1PKpheauRKUry3TuP4WPVSQerRAZ7k8GzMaUOJSRJgiWSi3qlN1wzKne0MWey41PpI6fTT_cGzmJ0WdRfy4lqaNQGjKLw0cqJHkRY9Y-y3xN2PqW3r5r8A0fKUys7AL1qvoWvYNx-C4FipN3n4hZjLMZCO86Cz-52M6mLtrgUGr1s-ZzCZXol_HTSW1vmUBreYAaLCgv5mc044QL4e_yAb7InidE4FXYIG3i2SiL3Ymhcx0eN0CuqYwgdva0VaddZynJoynGEca2Nw9DfMbaodZ-TKqvFs=w1435-h653-no</t>
+  </si>
+  <si>
+    <t>rsj</t>
+  </si>
+  <si>
+    <t>Suscription recomendada para la creación de las etiquetas</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/S4h-D_4_9beQUZ0EP42wv_ASAcMss_9gngpdD6BqI9aeYsHcjSU3xMG2N0DznEy6TSA6bvUG8NANz1sIacyeqb3CNKOFUd5kC6JIWHtnK6IUAodeNE_HXFn42yo9H9Wt1WrzLO3JvwWVMk8mfRijbCpEctmWEDl0QJQ4-luAmUvDmKP6F_6zBnQx3Bov3CIIJ85c12nU6B-xt_nql51v_IOllp_INvaUoMCjmE8BdOZxZCOYvf36b8lUot9yIU5KuXMEKP1Rk3Xy9TaHjON43xKLAUcND-jwmlruQGX9x604fRrwoZWs9fqD7d1kkT02DVvYwelz5RMkngXst8vtNpxCHHdgEfK_fmq1mtB_6MppKbmTa2eFid1gz6FMrmcGBD8ENe-Wqo2f9aY2-g0kE1rMNxccwt1Sq_x_uVTuGNeYO8MYf1MPDC6GfIpwQtDkVEqTomi7NyzC3y2JcWqWmNJvmzotixAQlAHaVjjxmM5TN_Per3A7f0AXhoqfrKgqDCHlI35zU7qfCkSLUhteWABboP3GUTgJLvzdl4xlpdUXbu6ANOctCwP2_n9liMA0M0zW0czkBrMt-1GYioucKzIp9JrlpqXZoJfpd8YsDjIoqbFrd5A6PnnHrOspJ4ciVzGNHcPL0dfmWEZroi4NPn7Vr8ynAODRJD6f_1x-GwgR-kV4EO3ItcE=w580-h862-no</t>
+  </si>
+  <si>
     <t>Abreviación</t>
   </si>
   <si>
@@ -182,18 +221,6 @@
     <t>elc_0_1</t>
   </si>
   <si>
-    <t>fbvar</t>
-  </si>
-  <si>
-    <t>Ejemplo de como debe estructurarse la pestaña de las variables (var)</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/GBgsOysr51d6vzcN1Z02oXfV58t1Mx9mqH0WfcsQoYwGv1FPiOr0Y0Dgl9wj2GOliJx9MGujcuElLIQS4fAJk4vVF92_xOQnPB_WhxX82I65B8VGKg7Gdn7f12I0LR4KK3P7rlEuGjVLBGrsgbvCMEoBAO_9EjtBTdyMbDkSdQBULvSoeb1UQHef7LH1lVrxPT84UhjG9Qd6HaAResPdeWNpI7Ug6AYzfksg_LItypOg0EZpByDh4WnEAFc5nTlZuV_DGPFfGpoeNhBEWbQsZMaiJD9Ow1m-OH69fR_agREMxeFSvIZcbiHgz9iF7zlVTAotViOh6uiLJp7q5Evws4x6y-xUSzs1QxTXzAstBhKJPQKHHkCYcQ4gV39RbBCh1u4T1qc1Uor7ZCtcj70WULRGHn-EWk8M006y3cV8EbNg1glH2rAlQJckkCu1fUGk8JS36d5ajUqkzqOnyc4Dunlk5M0PIYJDxjaRiuxuSgoTfDjSYq68n57SkdWoFAqVBF9flPyDO0bxakZxF4TXRzXP7dsQcEmMnIoTrcfWUNf-B78RZj8b8Fbu01O3Vt80USmDemx6-bDlKF9bQbtvqgJgufvMQk7OY53KrQKcXZfPoEamtI_-2DCNwqM4R4UwEaZoQejjtpdgfjYY11QrxT8cJmO8EUWMh4EyQ4BdTr6mj8h1-cej2mk=w924-h546-no</t>
-  </si>
-  <si>
-    <t>Var_01</t>
-  </si>
-  <si>
     <t>Var_02</t>
   </si>
   <si>
@@ -219,33 +246,6 @@
   </si>
   <si>
     <t>Var_10</t>
-  </si>
-  <si>
-    <t>fbtmpl</t>
-  </si>
-  <si>
-    <t>Proceso de como crear una copia de la plantilla del libro de campo o fieldbook</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/dACRPGeCWzh1R3CV7uRH3uK56imAYGX5r913fCaVrBV9pC30nB_KbRs8J4vkiO7j7YqyZc2m61fEo2OpTtPqlrb90eYpcMbLlm7l7Rm8QJYB1tCd4ONOjQqMGRnjxmhBFZGLTyVGhH6JNfbZnJQHsgW237D62JNoDhgxnboAntYBB99hKoqUG1bpO20FWf-NdblnmBMKGKiR_ccpS2CYyVCSawFzKiVfL8uDhQrYazv6CnVGOPAZym8dY_YqdcXSCo3LiqxaEoFBOsprAbwS_yAWJpSfNG1sYDUZhi1FkoZA7cbbKrAGrvRDshgSaZ9LHP4B9ARNgtfPP0lNEW20ydAjPYEAeBFLyPxpa8QV-m7s62e_BSeOJ_KNs6ZGZg-5fde5AG84HwXQvjopzsn6NFZ5Eia_LmYWrzbcWVF9ByZaBOixvrSgIlSImAfn2-a990Wb1VFETQn6YMBwPKnJWPis1Wc-jY3ZkaSjh9bzkIFld5LtoxeDt6FabdQagcpR5LOKMv364AEtGF4kiRBvyHBsVptitULm92nPshRoEhvMQTtQ-ByrkTIWUBVS9vnGRwV1D2x4TxLByFwjilgsBsF1HTNwKNNI9h62ZZ4YIiva6hyki6fRJl6flkCzza-5X9DSsaVnwaY_y4JreURFPuvNg8oIzbTnkWE-2oJQzWCHQcDeUTE7LDY=w1036-h559-no</t>
-  </si>
-  <si>
-    <t>conflbl</t>
-  </si>
-  <si>
-    <t>Configuración de modelo base para las etiqueta</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/LEQehxv7RcUbiIrS-lenkH_WiUu2CANG2SSAzIpxmZhGbTTDVSrCFQIezI5NbKMvpC23Rz38NrO9NDpaYLNwsAqNJwxzW83MGHXoYIW2DIv3dweMFOrjUwoK8TdaqPCQHbfKSoe0zHG4XvoioUVssqmYbFdjcAvcaaxco4R9bHmSnbMYegwvJS6_wKVQlf-hMMNcgHmQWiLUMIIIXS23OapCx0X6K7fTMpQHNKcpiC6QxefpO29vM0tq7o7SAnb1JNmK7Q9GgliokisFdRSm5qnDXUuolaU-ZiaJt-n8WQ0yNgpWEhhkKqiSM8OCFp1ncWbhtBFt0XsfazlSsjI3I2HwqN3bvHDWHAh0Oyx9b_yk4gUIEb2Hlc_wG2OKkOufi5jvMO4R0u4hWWPvssvtsLgho1PKpheauRKUry3TuP4WPVSQerRAZ7k8GzMaUOJSRJgiWSi3qlN1wzKne0MWey41PpI6fTT_cGzmJ0WdRfy4lqaNQGjKLw0cqJHkRY9Y-y3xN2PqW3r5r8A0fKUys7AL1qvoWvYNx-C4FipN3n4hZjLMZCO86Cz-52M6mLtrgUGr1s-ZzCZXol_HTSW1vmUBreYAaLCgv5mc044QL4e_yAb7InidE4FXYIG3i2SiL3Ymhcx0eN0CuqYwgdva0VaddZynJoynGEca2Nw9DfMbaodZ-TKqvFs=w1435-h653-no</t>
-  </si>
-  <si>
-    <t>rsj</t>
-  </si>
-  <si>
-    <t>Suscription recomendada para la creación de las etiquetas</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/S4h-D_4_9beQUZ0EP42wv_ASAcMss_9gngpdD6BqI9aeYsHcjSU3xMG2N0DznEy6TSA6bvUG8NANz1sIacyeqb3CNKOFUd5kC6JIWHtnK6IUAodeNE_HXFn42yo9H9Wt1WrzLO3JvwWVMk8mfRijbCpEctmWEDl0QJQ4-luAmUvDmKP6F_6zBnQx3Bov3CIIJ85c12nU6B-xt_nql51v_IOllp_INvaUoMCjmE8BdOZxZCOYvf36b8lUot9yIU5KuXMEKP1Rk3Xy9TaHjON43xKLAUcND-jwmlruQGX9x604fRrwoZWs9fqD7d1kkT02DVvYwelz5RMkngXst8vtNpxCHHdgEfK_fmq1mtB_6MppKbmTa2eFid1gz6FMrmcGBD8ENe-Wqo2f9aY2-g0kE1rMNxccwt1Sq_x_uVTuGNeYO8MYf1MPDC6GfIpwQtDkVEqTomi7NyzC3y2JcWqWmNJvmzotixAQlAHaVjjxmM5TN_Per3A7f0AXhoqfrKgqDCHlI35zU7qfCkSLUhteWABboP3GUTgJLvzdl4xlpdUXbu6ANOctCwP2_n9liMA0M0zW0czkBrMt-1GYioucKzIp9JrlpqXZoJfpd8YsDjIoqbFrd5A6PnnHrOspJ4ciVzGNHcPL0dfmWEZroi4NPn7Vr8ynAODRJD6f_1x-GwgR-kV4EO3ItcE=w580-h862-no</t>
   </si>
   <si>
     <t>https://lh3.googleusercontent.com/-Kh7oLr1KV-1nLXMBETLNVWQjjRL9qwdYoZoskesgTEwyqsurm-x7g79XKT0LfbwHGb9fe3KiRetpW6tknmAvdVbcpxcdDpnAVpgindhf7-8Rqd3F0bzsUkc4iMCNbFlM7YtLt0BKxUy5rCXbfmr8ZPHsj3KVrWL6ihfL8ttJOJ45qmkAWzPGr8O6FvDnD0VGqdKWXFMzX0-4epKE-jjmfjYzgKbvvo22EykrxG8btuEvM_mspKkZ0zliQPB82SdXdtUI-1tY1BQvR6mXTa9UJJbReHIprcrP3HlMo3cLzJLn9EF7k8RMvPL_mA9lAjq_FSjwrQCth_f2tvNfXzC-X_IlgbdZx4e5ynDDlABE8_xnbcwp6OSh0CjfS3LUjzKsv7iexRaiyNklgtQUWSWUT-kySLe9xGTAlZrKtInkQiXfN0TugTqTgiHl1raaK1afV8NU5GFNAkLPzmprBSA8nenxDqe5vEUqouV0EySBhTQ14OvaL3o8j6TUuRwk43vjidLGRH8SmLcU1yhXnSctiNwrneepQzp5rJOyD5megwXAyGEsLIac_CZLeVf1Nwi_R7lZGynve2FS8fDmTDnTYN_2ywRiyOhwcG47CsTti59fmoI50C0DFvsp4igVNajllAxdVF6tT3nt4veMxnqm_zC2QjOOB8eXNuFK3-9eqzkuqpsb-pHdLU=w699-h264-no</t>
@@ -272,15 +272,11 @@
     </font>
     <font>
       <b/>
-    </font>
-    <font>
-      <b/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <b/>
     </font>
     <font>
       <name val="Arial"/>
@@ -289,6 +285,10 @@
     <font>
       <u/>
       <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -311,6 +311,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFCE5CD"/>
         <bgColor rgb="FFFCE5CD"/>
       </patternFill>
@@ -327,12 +333,6 @@
         <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="19">
     <border/>
@@ -509,80 +509,80 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="3" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="10" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="11" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="12" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="13" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="14" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="15" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="16" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="17" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="16" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="18" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="18" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -827,99 +827,99 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="14" t="s">
-        <v>25</v>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>32</v>
+      <c r="A3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B7" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>65</v>
-      </c>
-    </row>
     <row r="8">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="18" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="18" t="s">
         <v>69</v>
       </c>
     </row>
@@ -962,38 +962,38 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
+      <c r="A1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>21</v>
+      <c r="B4" s="11" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1018,73 +1018,73 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>9</v>
+      <c r="A1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>18</v>
+      <c r="A2" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="10" t="s">
+      <c r="A3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>22</v>
       </c>
+      <c r="D3" s="15" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>26</v>
+      <c r="A4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>29</v>
+      <c r="A5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1107,55 +1107,55 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="17"/>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
+      <c r="A1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
     </row>
     <row r="2">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="J2" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="K2" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="L2" s="17"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="L2" s="16"/>
     </row>
     <row r="3">
-      <c r="A3" s="17"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
@@ -1166,10 +1166,10 @@
       <c r="I3" s="22"/>
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
-      <c r="L3" s="17"/>
+      <c r="L3" s="16"/>
     </row>
     <row r="4">
-      <c r="A4" s="17"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="22"/>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
@@ -1180,10 +1180,10 @@
       <c r="I4" s="22"/>
       <c r="J4" s="22"/>
       <c r="K4" s="22"/>
-      <c r="L4" s="17"/>
+      <c r="L4" s="16"/>
     </row>
     <row r="5">
-      <c r="A5" s="17"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
@@ -1194,10 +1194,10 @@
       <c r="I5" s="22"/>
       <c r="J5" s="22"/>
       <c r="K5" s="22"/>
-      <c r="L5" s="17"/>
+      <c r="L5" s="16"/>
     </row>
     <row r="6">
-      <c r="A6" s="17"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="22"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -1208,10 +1208,10 @@
       <c r="I6" s="22"/>
       <c r="J6" s="22"/>
       <c r="K6" s="22"/>
-      <c r="L6" s="17"/>
+      <c r="L6" s="16"/>
     </row>
     <row r="7">
-      <c r="A7" s="17"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
@@ -1222,7 +1222,7 @@
       <c r="I7" s="22"/>
       <c r="J7" s="22"/>
       <c r="K7" s="22"/>
-      <c r="L7" s="17"/>
+      <c r="L7" s="16"/>
     </row>
     <row r="8">
       <c r="A8" s="23"/>
@@ -1236,13 +1236,13 @@
       <c r="I8" s="25"/>
       <c r="J8" s="25"/>
       <c r="K8" s="26"/>
-      <c r="L8" s="17"/>
+      <c r="L8" s="16"/>
     </row>
     <row r="9">
       <c r="A9" s="27"/>
       <c r="B9" s="28"/>
       <c r="K9" s="29"/>
-      <c r="L9" s="17"/>
+      <c r="L9" s="16"/>
     </row>
     <row r="10">
       <c r="A10" s="27"/>
@@ -1256,34 +1256,34 @@
       <c r="I10" s="31"/>
       <c r="J10" s="31"/>
       <c r="K10" s="32"/>
-      <c r="L10" s="17"/>
+      <c r="L10" s="16"/>
     </row>
     <row r="11">
       <c r="A11" s="33"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
       <c r="L11" s="33"/>
     </row>
     <row r="12">
       <c r="A12" s="33"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
       <c r="L12" s="33"/>
     </row>
   </sheetData>
@@ -1311,54 +1311,54 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>37</v>
       </c>
+      <c r="B1" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="18">
+      <c r="A2" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="21">
         <v>0.0</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="21">
         <v>3.0</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>40</v>
+      <c r="E2" s="21" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="18">
+      <c r="A3" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="21">
         <v>0.0</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="21">
         <v>1.0</v>
       </c>
-      <c r="E3" s="18" t="s">
-        <v>43</v>
+      <c r="E3" s="21" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/files/plex.xlsx
+++ b/files/plex.xlsx
@@ -50,15 +50,90 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="70">
   <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>Variables</t>
+  </si>
+  <si>
     <t>figure</t>
   </si>
   <si>
     <t>description</t>
   </si>
   <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>dse</t>
+  </si>
+  <si>
+    <t>Abbreviation</t>
+  </si>
+  <si>
+    <t>Información básica para el experimento</t>
+  </si>
+  <si>
+    <t>flb</t>
+  </si>
+  <si>
+    <t>Imagen insertada en el libro de colecta de datos para la toma de información experimental</t>
+  </si>
+  <si>
+    <t>vrnmt</t>
+  </si>
+  <si>
+    <t>Units/Class</t>
+  </si>
+  <si>
+    <t>Ejemplo de los nombres de las variables para el libro de colecta de datos.</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Bar code</t>
+  </si>
+  <si>
+    <t>bar_code</t>
+  </si>
+  <si>
     <t>url</t>
   </si>
   <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Unique bar code identification for each EU</t>
+  </si>
+  <si>
+    <t>Plots identification</t>
+  </si>
+  <si>
+    <t>plots</t>
+  </si>
+  <si>
+    <t>Unique identification for each EU</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>block</t>
+  </si>
+  <si>
+    <t>4 repetitions</t>
+  </si>
+  <si>
+    <t>Imbibition time</t>
+  </si>
+  <si>
+    <t>imb</t>
+  </si>
+  <si>
+    <t>13 imbibition time each 2 hours</t>
+  </si>
+  <si>
     <t>album</t>
   </si>
   <si>
@@ -68,90 +143,75 @@
     <t>fbinfo</t>
   </si>
   <si>
+    <t>Nombre de la variable</t>
+  </si>
+  <si>
     <t>Datos mínimos y obligatorios en el hoja de información (info) del libro de campo o *fieldbook*</t>
   </si>
   <si>
     <t>https://lh3.googleusercontent.com/i3lkAnwH6ZppD_lsPomprCZx2McbsMFXnLMNaQltElE5tYCSdck0S5UJhgVii08DmOaNgoxmqzNhg7VrSELwWGvOFhFrT_K06GbloOS1nfq_FAhKFxLCV9u62beo5_xGOTlWVxED1BL1DfQuGL5ZLMLlZy0Ebn_p7MYx7y5APwzDC2ZkcT-KmTiVh93HJqUN4wO-Jexg4yCKSAL8XXgH-2r0qESfdYjN55E4veNCJi6tmT17wUI_zNozh7uPtcGPQ3Xra6YSginN6n1X2w6Pp-to0FqeR_ErZ_Ava-qo7AErLf3TpFAM7ZAC1iEsofKd1x1LtXTNX0C5ICnH2qtheBx05eyJ1nxuQ0E-70qO7VYRT3YlcmP2TSCTE5sBGj81FCi9ib5XJI3ldNLGt4DanB7D8qgIh6lflX_UHJrEOTLLz8k3aa7TI3u0-FG2n7MWztsuBWd1SY10utano04LGIpMkzXS_mBHXJgW5U61_w8IbDCnmC44yjjAv4lESoE0ituYTdUCQs2RvpN1Mk2Zfa2J7bLpleS95Lrk4eUAqBxQ1pQWbKtsh76twUHCf9h12TyUWoiT0LWF0BX-sMVG1Ek_U_MWuClkwBTtZ0ZBpExYjDqDUxnpp-MVAWDbnH0bA9vHBtdVtUlg3vJ_DFpNcK5WEj5XnpdmbZGBAWMRiuDGHJKpsCdvMVg=w1208-h506-no</t>
   </si>
   <si>
-    <t>table</t>
-  </si>
-  <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>dse</t>
-  </si>
-  <si>
-    <t>Información básica para el experimento</t>
-  </si>
-  <si>
-    <t>flb</t>
-  </si>
-  <si>
-    <t>Imagen insertada en el libro de colecta de datos para la toma de información experimental</t>
-  </si>
-  <si>
-    <t>vrnmt</t>
-  </si>
-  <si>
-    <t>Ejemplo de los nombres de las variables para el libro de colecta de datos.</t>
-  </si>
-  <si>
-    <t>Variables</t>
-  </si>
-  <si>
-    <t>Abbreviation</t>
-  </si>
-  <si>
-    <t>Units/Class</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Bar code</t>
-  </si>
-  <si>
-    <t>bar_code</t>
-  </si>
-  <si>
-    <t>Factor</t>
-  </si>
-  <si>
-    <t>Unique bar code identification for each EU</t>
-  </si>
-  <si>
-    <t>Plots identification</t>
-  </si>
-  <si>
-    <t>plots</t>
-  </si>
-  <si>
-    <t>Unique identification for each EU</t>
-  </si>
-  <si>
-    <t>Block</t>
-  </si>
-  <si>
-    <t>block</t>
-  </si>
-  <si>
-    <t>4 repetitions</t>
-  </si>
-  <si>
-    <t>Imbibition time</t>
-  </si>
-  <si>
-    <t>imb</t>
-  </si>
-  <si>
-    <t>13 imbibition time each 2 hours</t>
+    <t>Abreviación</t>
+  </si>
+  <si>
+    <t>DDS</t>
+  </si>
+  <si>
+    <t>Muestras</t>
+  </si>
+  <si>
+    <t>Nombre columnas</t>
+  </si>
+  <si>
+    <t>Seed Coat Hardness</t>
+  </si>
+  <si>
+    <t>sch</t>
+  </si>
+  <si>
+    <t>sch_0_1, sch_0_2, sch_0_3</t>
+  </si>
+  <si>
+    <t>Electrical conductivity</t>
+  </si>
+  <si>
+    <t>elc</t>
+  </si>
+  <si>
+    <t>elc_0_1</t>
   </si>
   <si>
     <t>Var_01</t>
   </si>
   <si>
+    <t>Var_02</t>
+  </si>
+  <si>
+    <t>Var_03</t>
+  </si>
+  <si>
+    <t>Var_04</t>
+  </si>
+  <si>
+    <t>Var_05</t>
+  </si>
+  <si>
+    <t>Var_06</t>
+  </si>
+  <si>
+    <t>Var_07</t>
+  </si>
+  <si>
+    <t>Var_08</t>
+  </si>
+  <si>
+    <t>Var_09</t>
+  </si>
+  <si>
+    <t>Var_10</t>
+  </si>
+  <si>
     <t>fbvar</t>
   </si>
   <si>
@@ -161,9 +221,6 @@
     <t>https://lh3.googleusercontent.com/GBgsOysr51d6vzcN1Z02oXfV58t1Mx9mqH0WfcsQoYwGv1FPiOr0Y0Dgl9wj2GOliJx9MGujcuElLIQS4fAJk4vVF92_xOQnPB_WhxX82I65B8VGKg7Gdn7f12I0LR4KK3P7rlEuGjVLBGrsgbvCMEoBAO_9EjtBTdyMbDkSdQBULvSoeb1UQHef7LH1lVrxPT84UhjG9Qd6HaAResPdeWNpI7Ug6AYzfksg_LItypOg0EZpByDh4WnEAFc5nTlZuV_DGPFfGpoeNhBEWbQsZMaiJD9Ow1m-OH69fR_agREMxeFSvIZcbiHgz9iF7zlVTAotViOh6uiLJp7q5Evws4x6y-xUSzs1QxTXzAstBhKJPQKHHkCYcQ4gV39RbBCh1u4T1qc1Uor7ZCtcj70WULRGHn-EWk8M006y3cV8EbNg1glH2rAlQJckkCu1fUGk8JS36d5ajUqkzqOnyc4Dunlk5M0PIYJDxjaRiuxuSgoTfDjSYq68n57SkdWoFAqVBF9flPyDO0bxakZxF4TXRzXP7dsQcEmMnIoTrcfWUNf-B78RZj8b8Fbu01O3Vt80USmDemx6-bDlKF9bQbtvqgJgufvMQk7OY53KrQKcXZfPoEamtI_-2DCNwqM4R4UwEaZoQejjtpdgfjYY11QrxT8cJmO8EUWMh4EyQ4BdTr6mj8h1-cej2mk=w924-h546-no</t>
   </si>
   <si>
-    <t>Nombre de la variable</t>
-  </si>
-  <si>
     <t>fbtmpl</t>
   </si>
   <si>
@@ -189,63 +246,6 @@
   </si>
   <si>
     <t>https://lh3.googleusercontent.com/S4h-D_4_9beQUZ0EP42wv_ASAcMss_9gngpdD6BqI9aeYsHcjSU3xMG2N0DznEy6TSA6bvUG8NANz1sIacyeqb3CNKOFUd5kC6JIWHtnK6IUAodeNE_HXFn42yo9H9Wt1WrzLO3JvwWVMk8mfRijbCpEctmWEDl0QJQ4-luAmUvDmKP6F_6zBnQx3Bov3CIIJ85c12nU6B-xt_nql51v_IOllp_INvaUoMCjmE8BdOZxZCOYvf36b8lUot9yIU5KuXMEKP1Rk3Xy9TaHjON43xKLAUcND-jwmlruQGX9x604fRrwoZWs9fqD7d1kkT02DVvYwelz5RMkngXst8vtNpxCHHdgEfK_fmq1mtB_6MppKbmTa2eFid1gz6FMrmcGBD8ENe-Wqo2f9aY2-g0kE1rMNxccwt1Sq_x_uVTuGNeYO8MYf1MPDC6GfIpwQtDkVEqTomi7NyzC3y2JcWqWmNJvmzotixAQlAHaVjjxmM5TN_Per3A7f0AXhoqfrKgqDCHlI35zU7qfCkSLUhteWABboP3GUTgJLvzdl4xlpdUXbu6ANOctCwP2_n9liMA0M0zW0czkBrMt-1GYioucKzIp9JrlpqXZoJfpd8YsDjIoqbFrd5A6PnnHrOspJ4ciVzGNHcPL0dfmWEZroi4NPn7Vr8ynAODRJD6f_1x-GwgR-kV4EO3ItcE=w580-h862-no</t>
-  </si>
-  <si>
-    <t>Abreviación</t>
-  </si>
-  <si>
-    <t>DDS</t>
-  </si>
-  <si>
-    <t>Muestras</t>
-  </si>
-  <si>
-    <t>Nombre columnas</t>
-  </si>
-  <si>
-    <t>Seed Coat Hardness</t>
-  </si>
-  <si>
-    <t>sch</t>
-  </si>
-  <si>
-    <t>sch_0_1, sch_0_2, sch_0_3</t>
-  </si>
-  <si>
-    <t>Electrical conductivity</t>
-  </si>
-  <si>
-    <t>elc</t>
-  </si>
-  <si>
-    <t>elc_0_1</t>
-  </si>
-  <si>
-    <t>Var_02</t>
-  </si>
-  <si>
-    <t>Var_03</t>
-  </si>
-  <si>
-    <t>Var_04</t>
-  </si>
-  <si>
-    <t>Var_05</t>
-  </si>
-  <si>
-    <t>Var_06</t>
-  </si>
-  <si>
-    <t>Var_07</t>
-  </si>
-  <si>
-    <t>Var_08</t>
-  </si>
-  <si>
-    <t>Var_09</t>
-  </si>
-  <si>
-    <t>Var_10</t>
   </si>
   <si>
     <t>https://lh3.googleusercontent.com/-Kh7oLr1KV-1nLXMBETLNVWQjjRL9qwdYoZoskesgTEwyqsurm-x7g79XKT0LfbwHGb9fe3KiRetpW6tknmAvdVbcpxcdDpnAVpgindhf7-8Rqd3F0bzsUkc4iMCNbFlM7YtLt0BKxUy5rCXbfmr8ZPHsj3KVrWL6ihfL8ttJOJ45qmkAWzPGr8O6FvDnD0VGqdKWXFMzX0-4epKE-jjmfjYzgKbvvo22EykrxG8btuEvM_mspKkZ0zliQPB82SdXdtUI-1tY1BQvR6mXTa9UJJbReHIprcrP3HlMo3cLzJLn9EF7k8RMvPL_mA9lAjq_FSjwrQCth_f2tvNfXzC-X_IlgbdZx4e5ynDDlABE8_xnbcwp6OSh0CjfS3LUjzKsv7iexRaiyNklgtQUWSWUT-kySLe9xGTAlZrKtInkQiXfN0TugTqTgiHl1raaK1afV8NU5GFNAkLPzmprBSA8nenxDqe5vEUqouV0EySBhTQ14OvaL3o8j6TUuRwk43vjidLGRH8SmLcU1yhXnSctiNwrneepQzp5rJOyD5megwXAyGEsLIac_CZLeVf1Nwi_R7lZGynve2FS8fDmTDnTYN_2ywRiyOhwcG47CsTti59fmoI50C0DFvsp4igVNajllAxdVF6tT3nt4veMxnqm_zC2QjOOB8eXNuFK3-9eqzkuqpsb-pHdLU=w699-h264-no</t>
@@ -272,23 +272,23 @@
     </font>
     <font>
       <b/>
+    </font>
+    <font>
+      <b/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
-    </font>
-    <font>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font/>
     <font>
-      <u/>
-      <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
-      <color theme="1"/>
+      <u/>
+      <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -311,12 +311,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFCE5CD"/>
         <bgColor rgb="FFFCE5CD"/>
       </patternFill>
@@ -333,6 +327,12 @@
         <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="19">
     <border/>
@@ -509,80 +509,80 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="4" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="4" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="9" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="10" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="12" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="13" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="14" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="15" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="16" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="17" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="18" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -827,99 +827,99 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
+      <c r="B1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6" t="s">
-        <v>4</v>
+      <c r="A2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="14" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>7</v>
+      <c r="A3" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>36</v>
+      <c r="A4" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>40</v>
+      <c r="A5" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>43</v>
+      <c r="A6" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>46</v>
+      <c r="A7" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="18" t="s">
+      <c r="A8" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="22" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="22" t="s">
         <v>69</v>
       </c>
     </row>
@@ -962,38 +962,38 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="8" t="s">
+    <row r="4">
+      <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1018,73 +1018,73 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="13" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="14" t="s">
+      <c r="B3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="C3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="15" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="B4" s="10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="14" t="s">
+      <c r="C4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="15" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="15" t="s">
+      <c r="B5" s="10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="14" t="s">
+      <c r="C5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>27</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1107,122 +1107,122 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="16"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
+      <c r="A1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
     </row>
     <row r="2">
-      <c r="A2" s="17"/>
-      <c r="B2" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="J2" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="L2" s="16"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="17"/>
     </row>
     <row r="3">
-      <c r="A3" s="16"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="16"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="17"/>
     </row>
     <row r="4">
-      <c r="A4" s="16"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="16"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="17"/>
     </row>
     <row r="5">
-      <c r="A5" s="16"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="16"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="17"/>
     </row>
     <row r="6">
-      <c r="A6" s="16"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="16"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="17"/>
     </row>
     <row r="7">
-      <c r="A7" s="16"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="16"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="17"/>
     </row>
     <row r="8">
       <c r="A8" s="23"/>
@@ -1236,13 +1236,13 @@
       <c r="I8" s="25"/>
       <c r="J8" s="25"/>
       <c r="K8" s="26"/>
-      <c r="L8" s="16"/>
+      <c r="L8" s="17"/>
     </row>
     <row r="9">
       <c r="A9" s="27"/>
       <c r="B9" s="28"/>
       <c r="K9" s="29"/>
-      <c r="L9" s="16"/>
+      <c r="L9" s="17"/>
     </row>
     <row r="10">
       <c r="A10" s="27"/>
@@ -1256,34 +1256,34 @@
       <c r="I10" s="31"/>
       <c r="J10" s="31"/>
       <c r="K10" s="32"/>
-      <c r="L10" s="16"/>
+      <c r="L10" s="17"/>
     </row>
     <row r="11">
       <c r="A11" s="33"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
       <c r="L11" s="33"/>
     </row>
     <row r="12">
       <c r="A12" s="33"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
       <c r="L12" s="33"/>
     </row>
   </sheetData>
@@ -1311,54 +1311,54 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="21">
+      <c r="A2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="18">
         <v>0.0</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="18">
         <v>3.0</v>
       </c>
-      <c r="E2" s="21" t="s">
-        <v>53</v>
+      <c r="E2" s="18" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="21">
+      <c r="A3" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="18">
         <v>0.0</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="18">
         <v>1.0</v>
       </c>
-      <c r="E3" s="21" t="s">
-        <v>56</v>
+      <c r="E3" s="18" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/files/plex.xlsx
+++ b/files/plex.xlsx
@@ -53,54 +53,60 @@
     <t>table</t>
   </si>
   <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>dse</t>
+  </si>
+  <si>
+    <t>figure</t>
+  </si>
+  <si>
     <t>Variables</t>
   </si>
   <si>
-    <t>figure</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>dse</t>
+    <t>Información básica para el experimento</t>
+  </si>
+  <si>
+    <t>flb</t>
+  </si>
+  <si>
+    <t>Imagen insertada en el libro de colecta de datos para la toma de información experimental</t>
+  </si>
+  <si>
+    <t>vrnmt</t>
+  </si>
+  <si>
+    <t>Ejemplo de los nombres de las variables para el libro de colecta de datos.</t>
   </si>
   <si>
     <t>Abbreviation</t>
   </si>
   <si>
-    <t>Información básica para el experimento</t>
-  </si>
-  <si>
-    <t>flb</t>
-  </si>
-  <si>
-    <t>Imagen insertada en el libro de colecta de datos para la toma de información experimental</t>
-  </si>
-  <si>
-    <t>vrnmt</t>
+    <t>url</t>
   </si>
   <si>
     <t>Units/Class</t>
   </si>
   <si>
-    <t>Ejemplo de los nombres de las variables para el libro de colecta de datos.</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
+    <t>album</t>
+  </si>
+  <si>
     <t>Bar code</t>
   </si>
   <si>
+    <t>https://photos.google.com/album/AF1QipMbEdlERX_3ILLPzXk6oniNARKvbKptwn2BK5n4</t>
+  </si>
+  <si>
     <t>bar_code</t>
   </si>
   <si>
-    <t>url</t>
-  </si>
-  <si>
     <t>Factor</t>
   </si>
   <si>
@@ -125,33 +131,66 @@
     <t>4 repetitions</t>
   </si>
   <si>
+    <t>fbinfo</t>
+  </si>
+  <si>
     <t>Imbibition time</t>
   </si>
   <si>
     <t>imb</t>
   </si>
   <si>
+    <t>Datos mínimos y obligatorios en el hoja de información (info) del libro de campo o *fieldbook*</t>
+  </si>
+  <si>
     <t>13 imbibition time each 2 hours</t>
   </si>
   <si>
-    <t>album</t>
-  </si>
-  <si>
-    <t>https://photos.google.com/album/AF1QipMbEdlERX_3ILLPzXk6oniNARKvbKptwn2BK5n4</t>
-  </si>
-  <si>
-    <t>fbinfo</t>
+    <t>https://lh3.googleusercontent.com/i3lkAnwH6ZppD_lsPomprCZx2McbsMFXnLMNaQltElE5tYCSdck0S5UJhgVii08DmOaNgoxmqzNhg7VrSELwWGvOFhFrT_K06GbloOS1nfq_FAhKFxLCV9u62beo5_xGOTlWVxED1BL1DfQuGL5ZLMLlZy0Ebn_p7MYx7y5APwzDC2ZkcT-KmTiVh93HJqUN4wO-Jexg4yCKSAL8XXgH-2r0qESfdYjN55E4veNCJi6tmT17wUI_zNozh7uPtcGPQ3Xra6YSginN6n1X2w6Pp-to0FqeR_ErZ_Ava-qo7AErLf3TpFAM7ZAC1iEsofKd1x1LtXTNX0C5ICnH2qtheBx05eyJ1nxuQ0E-70qO7VYRT3YlcmP2TSCTE5sBGj81FCi9ib5XJI3ldNLGt4DanB7D8qgIh6lflX_UHJrEOTLLz8k3aa7TI3u0-FG2n7MWztsuBWd1SY10utano04LGIpMkzXS_mBHXJgW5U61_w8IbDCnmC44yjjAv4lESoE0ituYTdUCQs2RvpN1Mk2Zfa2J7bLpleS95Lrk4eUAqBxQ1pQWbKtsh76twUHCf9h12TyUWoiT0LWF0BX-sMVG1Ek_U_MWuClkwBTtZ0ZBpExYjDqDUxnpp-MVAWDbnH0bA9vHBtdVtUlg3vJ_DFpNcK5WEj5XnpdmbZGBAWMRiuDGHJKpsCdvMVg=w1208-h506-no</t>
+  </si>
+  <si>
+    <t>Var_01</t>
+  </si>
+  <si>
+    <t>Var_02</t>
+  </si>
+  <si>
+    <t>Var_03</t>
+  </si>
+  <si>
+    <t>Var_04</t>
+  </si>
+  <si>
+    <t>Var_05</t>
+  </si>
+  <si>
+    <t>Var_06</t>
+  </si>
+  <si>
+    <t>Var_07</t>
+  </si>
+  <si>
+    <t>fbvar</t>
+  </si>
+  <si>
+    <t>Ejemplo de como debe estructurarse la pestaña de las variables (var)</t>
+  </si>
+  <si>
+    <t>Var_08</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/GBgsOysr51d6vzcN1Z02oXfV58t1Mx9mqH0WfcsQoYwGv1FPiOr0Y0Dgl9wj2GOliJx9MGujcuElLIQS4fAJk4vVF92_xOQnPB_WhxX82I65B8VGKg7Gdn7f12I0LR4KK3P7rlEuGjVLBGrsgbvCMEoBAO_9EjtBTdyMbDkSdQBULvSoeb1UQHef7LH1lVrxPT84UhjG9Qd6HaAResPdeWNpI7Ug6AYzfksg_LItypOg0EZpByDh4WnEAFc5nTlZuV_DGPFfGpoeNhBEWbQsZMaiJD9Ow1m-OH69fR_agREMxeFSvIZcbiHgz9iF7zlVTAotViOh6uiLJp7q5Evws4x6y-xUSzs1QxTXzAstBhKJPQKHHkCYcQ4gV39RbBCh1u4T1qc1Uor7ZCtcj70WULRGHn-EWk8M006y3cV8EbNg1glH2rAlQJckkCu1fUGk8JS36d5ajUqkzqOnyc4Dunlk5M0PIYJDxjaRiuxuSgoTfDjSYq68n57SkdWoFAqVBF9flPyDO0bxakZxF4TXRzXP7dsQcEmMnIoTrcfWUNf-B78RZj8b8Fbu01O3Vt80USmDemx6-bDlKF9bQbtvqgJgufvMQk7OY53KrQKcXZfPoEamtI_-2DCNwqM4R4UwEaZoQejjtpdgfjYY11QrxT8cJmO8EUWMh4EyQ4BdTr6mj8h1-cej2mk=w924-h546-no</t>
+  </si>
+  <si>
+    <t>Var_09</t>
+  </si>
+  <si>
+    <t>Var_10</t>
   </si>
   <si>
     <t>Nombre de la variable</t>
   </si>
   <si>
-    <t>Datos mínimos y obligatorios en el hoja de información (info) del libro de campo o *fieldbook*</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/i3lkAnwH6ZppD_lsPomprCZx2McbsMFXnLMNaQltElE5tYCSdck0S5UJhgVii08DmOaNgoxmqzNhg7VrSELwWGvOFhFrT_K06GbloOS1nfq_FAhKFxLCV9u62beo5_xGOTlWVxED1BL1DfQuGL5ZLMLlZy0Ebn_p7MYx7y5APwzDC2ZkcT-KmTiVh93HJqUN4wO-Jexg4yCKSAL8XXgH-2r0qESfdYjN55E4veNCJi6tmT17wUI_zNozh7uPtcGPQ3Xra6YSginN6n1X2w6Pp-to0FqeR_ErZ_Ava-qo7AErLf3TpFAM7ZAC1iEsofKd1x1LtXTNX0C5ICnH2qtheBx05eyJ1nxuQ0E-70qO7VYRT3YlcmP2TSCTE5sBGj81FCi9ib5XJI3ldNLGt4DanB7D8qgIh6lflX_UHJrEOTLLz8k3aa7TI3u0-FG2n7MWztsuBWd1SY10utano04LGIpMkzXS_mBHXJgW5U61_w8IbDCnmC44yjjAv4lESoE0ituYTdUCQs2RvpN1Mk2Zfa2J7bLpleS95Lrk4eUAqBxQ1pQWbKtsh76twUHCf9h12TyUWoiT0LWF0BX-sMVG1Ek_U_MWuClkwBTtZ0ZBpExYjDqDUxnpp-MVAWDbnH0bA9vHBtdVtUlg3vJ_DFpNcK5WEj5XnpdmbZGBAWMRiuDGHJKpsCdvMVg=w1208-h506-no</t>
-  </si>
-  <si>
     <t>Abreviación</t>
   </si>
   <si>
@@ -180,45 +219,6 @@
   </si>
   <si>
     <t>elc_0_1</t>
-  </si>
-  <si>
-    <t>Var_01</t>
-  </si>
-  <si>
-    <t>Var_02</t>
-  </si>
-  <si>
-    <t>Var_03</t>
-  </si>
-  <si>
-    <t>Var_04</t>
-  </si>
-  <si>
-    <t>Var_05</t>
-  </si>
-  <si>
-    <t>Var_06</t>
-  </si>
-  <si>
-    <t>Var_07</t>
-  </si>
-  <si>
-    <t>Var_08</t>
-  </si>
-  <si>
-    <t>Var_09</t>
-  </si>
-  <si>
-    <t>Var_10</t>
-  </si>
-  <si>
-    <t>fbvar</t>
-  </si>
-  <si>
-    <t>Ejemplo de como debe estructurarse la pestaña de las variables (var)</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/GBgsOysr51d6vzcN1Z02oXfV58t1Mx9mqH0WfcsQoYwGv1FPiOr0Y0Dgl9wj2GOliJx9MGujcuElLIQS4fAJk4vVF92_xOQnPB_WhxX82I65B8VGKg7Gdn7f12I0LR4KK3P7rlEuGjVLBGrsgbvCMEoBAO_9EjtBTdyMbDkSdQBULvSoeb1UQHef7LH1lVrxPT84UhjG9Qd6HaAResPdeWNpI7Ug6AYzfksg_LItypOg0EZpByDh4WnEAFc5nTlZuV_DGPFfGpoeNhBEWbQsZMaiJD9Ow1m-OH69fR_agREMxeFSvIZcbiHgz9iF7zlVTAotViOh6uiLJp7q5Evws4x6y-xUSzs1QxTXzAstBhKJPQKHHkCYcQ4gV39RbBCh1u4T1qc1Uor7ZCtcj70WULRGHn-EWk8M006y3cV8EbNg1glH2rAlQJckkCu1fUGk8JS36d5ajUqkzqOnyc4Dunlk5M0PIYJDxjaRiuxuSgoTfDjSYq68n57SkdWoFAqVBF9flPyDO0bxakZxF4TXRzXP7dsQcEmMnIoTrcfWUNf-B78RZj8b8Fbu01O3Vt80USmDemx6-bDlKF9bQbtvqgJgufvMQk7OY53KrQKcXZfPoEamtI_-2DCNwqM4R4UwEaZoQejjtpdgfjYY11QrxT8cJmO8EUWMh4EyQ4BdTr6mj8h1-cej2mk=w924-h546-no</t>
   </si>
   <si>
     <t>fbtmpl</t>
@@ -274,11 +274,11 @@
       <b/>
     </font>
     <font>
-      <b/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <b/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -323,14 +323,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -512,77 +512,77 @@
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="3" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="3" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="4" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="9" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="10" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="12" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="13" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="14" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="15" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="16" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="18" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="17" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="18" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -827,55 +827,55 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>16</v>
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="13"/>
+      <c r="A2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="11"/>
       <c r="C2" s="14" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="19" t="s">
         <v>32</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>56</v>
+        <v>40</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="19" t="s">
         <v>59</v>
       </c>
     </row>
@@ -883,10 +883,10 @@
       <c r="A6" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="19" t="s">
         <v>62</v>
       </c>
     </row>
@@ -894,21 +894,21 @@
       <c r="A7" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="19" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="19" t="s">
         <v>66</v>
       </c>
     </row>
@@ -916,10 +916,10 @@
       <c r="A9" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="19" t="s">
         <v>69</v>
       </c>
     </row>
@@ -966,34 +966,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1018,73 +1018,73 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="8" t="s">
         <v>13</v>
       </c>
+      <c r="D1" s="8" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="10" t="s">
+      <c r="A2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>18</v>
       </c>
+      <c r="C2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>21</v>
+      <c r="D3" s="13" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="10" t="s">
+      <c r="A4" s="12" t="s">
         <v>24</v>
       </c>
+      <c r="B4" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>27</v>
+      <c r="A5" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1107,122 +1107,122 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="17"/>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
+      <c r="A1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
     </row>
     <row r="2">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20" t="s">
+      <c r="A2" s="17"/>
+      <c r="B2" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="K2" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="L2" s="17"/>
+      <c r="L2" s="16"/>
     </row>
     <row r="3">
-      <c r="A3" s="17"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="17"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="16"/>
     </row>
     <row r="4">
-      <c r="A4" s="17"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="17"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="16"/>
     </row>
     <row r="5">
-      <c r="A5" s="17"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="17"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="16"/>
     </row>
     <row r="6">
-      <c r="A6" s="17"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="17"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="16"/>
     </row>
     <row r="7">
-      <c r="A7" s="17"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="17"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="16"/>
     </row>
     <row r="8">
       <c r="A8" s="23"/>
@@ -1236,13 +1236,13 @@
       <c r="I8" s="25"/>
       <c r="J8" s="25"/>
       <c r="K8" s="26"/>
-      <c r="L8" s="17"/>
+      <c r="L8" s="16"/>
     </row>
     <row r="9">
       <c r="A9" s="27"/>
       <c r="B9" s="28"/>
       <c r="K9" s="29"/>
-      <c r="L9" s="17"/>
+      <c r="L9" s="16"/>
     </row>
     <row r="10">
       <c r="A10" s="27"/>
@@ -1256,7 +1256,7 @@
       <c r="I10" s="31"/>
       <c r="J10" s="31"/>
       <c r="K10" s="32"/>
-      <c r="L10" s="17"/>
+      <c r="L10" s="16"/>
     </row>
     <row r="11">
       <c r="A11" s="33"/>
@@ -1311,54 +1311,54 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>37</v>
+      <c r="A1" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="18">
+      <c r="A2" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="22">
         <v>0.0</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="22">
         <v>3.0</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>40</v>
+      <c r="E2" s="22" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="18">
+      <c r="A3" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="22">
         <v>0.0</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="22">
         <v>1.0</v>
       </c>
-      <c r="E3" s="18" t="s">
-        <v>43</v>
+      <c r="E3" s="22" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/files/plex.xlsx
+++ b/files/plex.xlsx
@@ -53,6 +53,12 @@
     <t>table</t>
   </si>
   <si>
+    <t>figure</t>
+  </si>
+  <si>
+    <t>Variables</t>
+  </si>
+  <si>
     <t>description</t>
   </si>
   <si>
@@ -62,12 +68,6 @@
     <t>dse</t>
   </si>
   <si>
-    <t>figure</t>
-  </si>
-  <si>
-    <t>Variables</t>
-  </si>
-  <si>
     <t>Información básica para el experimento</t>
   </si>
   <si>
@@ -89,15 +89,15 @@
     <t>url</t>
   </si>
   <si>
+    <t>album</t>
+  </si>
+  <si>
     <t>Units/Class</t>
   </si>
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>album</t>
-  </si>
-  <si>
     <t>Bar code</t>
   </si>
   <si>
@@ -131,94 +131,94 @@
     <t>4 repetitions</t>
   </si>
   <si>
+    <t>Imbibition time</t>
+  </si>
+  <si>
+    <t>Var_01</t>
+  </si>
+  <si>
+    <t>imb</t>
+  </si>
+  <si>
+    <t>13 imbibition time each 2 hours</t>
+  </si>
+  <si>
+    <t>Var_02</t>
+  </si>
+  <si>
+    <t>Var_03</t>
+  </si>
+  <si>
+    <t>Var_04</t>
+  </si>
+  <si>
+    <t>Var_05</t>
+  </si>
+  <si>
+    <t>Var_06</t>
+  </si>
+  <si>
+    <t>Var_07</t>
+  </si>
+  <si>
+    <t>Var_08</t>
+  </si>
+  <si>
+    <t>Var_09</t>
+  </si>
+  <si>
+    <t>Var_10</t>
+  </si>
+  <si>
+    <t>Nombre de la variable</t>
+  </si>
+  <si>
+    <t>Abreviación</t>
+  </si>
+  <si>
+    <t>DDS</t>
+  </si>
+  <si>
+    <t>Muestras</t>
+  </si>
+  <si>
+    <t>Nombre columnas</t>
+  </si>
+  <si>
+    <t>Seed Coat Hardness</t>
+  </si>
+  <si>
+    <t>sch</t>
+  </si>
+  <si>
+    <t>sch_0_1, sch_0_2, sch_0_3</t>
+  </si>
+  <si>
+    <t>Electrical conductivity</t>
+  </si>
+  <si>
+    <t>elc</t>
+  </si>
+  <si>
+    <t>elc_0_1</t>
+  </si>
+  <si>
     <t>fbinfo</t>
   </si>
   <si>
-    <t>Imbibition time</t>
-  </si>
-  <si>
-    <t>imb</t>
-  </si>
-  <si>
     <t>Datos mínimos y obligatorios en el hoja de información (info) del libro de campo o *fieldbook*</t>
   </si>
   <si>
-    <t>13 imbibition time each 2 hours</t>
-  </si>
-  <si>
     <t>https://lh3.googleusercontent.com/i3lkAnwH6ZppD_lsPomprCZx2McbsMFXnLMNaQltElE5tYCSdck0S5UJhgVii08DmOaNgoxmqzNhg7VrSELwWGvOFhFrT_K06GbloOS1nfq_FAhKFxLCV9u62beo5_xGOTlWVxED1BL1DfQuGL5ZLMLlZy0Ebn_p7MYx7y5APwzDC2ZkcT-KmTiVh93HJqUN4wO-Jexg4yCKSAL8XXgH-2r0qESfdYjN55E4veNCJi6tmT17wUI_zNozh7uPtcGPQ3Xra6YSginN6n1X2w6Pp-to0FqeR_ErZ_Ava-qo7AErLf3TpFAM7ZAC1iEsofKd1x1LtXTNX0C5ICnH2qtheBx05eyJ1nxuQ0E-70qO7VYRT3YlcmP2TSCTE5sBGj81FCi9ib5XJI3ldNLGt4DanB7D8qgIh6lflX_UHJrEOTLLz8k3aa7TI3u0-FG2n7MWztsuBWd1SY10utano04LGIpMkzXS_mBHXJgW5U61_w8IbDCnmC44yjjAv4lESoE0ituYTdUCQs2RvpN1Mk2Zfa2J7bLpleS95Lrk4eUAqBxQ1pQWbKtsh76twUHCf9h12TyUWoiT0LWF0BX-sMVG1Ek_U_MWuClkwBTtZ0ZBpExYjDqDUxnpp-MVAWDbnH0bA9vHBtdVtUlg3vJ_DFpNcK5WEj5XnpdmbZGBAWMRiuDGHJKpsCdvMVg=w1208-h506-no</t>
   </si>
   <si>
-    <t>Var_01</t>
-  </si>
-  <si>
-    <t>Var_02</t>
-  </si>
-  <si>
-    <t>Var_03</t>
-  </si>
-  <si>
-    <t>Var_04</t>
-  </si>
-  <si>
-    <t>Var_05</t>
-  </si>
-  <si>
-    <t>Var_06</t>
-  </si>
-  <si>
-    <t>Var_07</t>
-  </si>
-  <si>
     <t>fbvar</t>
   </si>
   <si>
     <t>Ejemplo de como debe estructurarse la pestaña de las variables (var)</t>
   </si>
   <si>
-    <t>Var_08</t>
-  </si>
-  <si>
     <t>https://lh3.googleusercontent.com/GBgsOysr51d6vzcN1Z02oXfV58t1Mx9mqH0WfcsQoYwGv1FPiOr0Y0Dgl9wj2GOliJx9MGujcuElLIQS4fAJk4vVF92_xOQnPB_WhxX82I65B8VGKg7Gdn7f12I0LR4KK3P7rlEuGjVLBGrsgbvCMEoBAO_9EjtBTdyMbDkSdQBULvSoeb1UQHef7LH1lVrxPT84UhjG9Qd6HaAResPdeWNpI7Ug6AYzfksg_LItypOg0EZpByDh4WnEAFc5nTlZuV_DGPFfGpoeNhBEWbQsZMaiJD9Ow1m-OH69fR_agREMxeFSvIZcbiHgz9iF7zlVTAotViOh6uiLJp7q5Evws4x6y-xUSzs1QxTXzAstBhKJPQKHHkCYcQ4gV39RbBCh1u4T1qc1Uor7ZCtcj70WULRGHn-EWk8M006y3cV8EbNg1glH2rAlQJckkCu1fUGk8JS36d5ajUqkzqOnyc4Dunlk5M0PIYJDxjaRiuxuSgoTfDjSYq68n57SkdWoFAqVBF9flPyDO0bxakZxF4TXRzXP7dsQcEmMnIoTrcfWUNf-B78RZj8b8Fbu01O3Vt80USmDemx6-bDlKF9bQbtvqgJgufvMQk7OY53KrQKcXZfPoEamtI_-2DCNwqM4R4UwEaZoQejjtpdgfjYY11QrxT8cJmO8EUWMh4EyQ4BdTr6mj8h1-cej2mk=w924-h546-no</t>
-  </si>
-  <si>
-    <t>Var_09</t>
-  </si>
-  <si>
-    <t>Var_10</t>
-  </si>
-  <si>
-    <t>Nombre de la variable</t>
-  </si>
-  <si>
-    <t>Abreviación</t>
-  </si>
-  <si>
-    <t>DDS</t>
-  </si>
-  <si>
-    <t>Muestras</t>
-  </si>
-  <si>
-    <t>Nombre columnas</t>
-  </si>
-  <si>
-    <t>Seed Coat Hardness</t>
-  </si>
-  <si>
-    <t>sch</t>
-  </si>
-  <si>
-    <t>sch_0_1, sch_0_2, sch_0_3</t>
-  </si>
-  <si>
-    <t>Electrical conductivity</t>
-  </si>
-  <si>
-    <t>elc</t>
-  </si>
-  <si>
-    <t>elc_0_1</t>
   </si>
   <si>
     <t>fbtmpl</t>
@@ -524,12 +524,12 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -544,12 +544,6 @@
     <xf borderId="4" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
     <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -557,18 +551,15 @@
     <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
     <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
+    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="9" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="10" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -579,6 +570,15 @@
     <xf borderId="16" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="17" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="18" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
@@ -828,10 +828,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>12</v>
@@ -839,76 +839,76 @@
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2" s="11"/>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="32" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="15" t="s">
-        <v>27</v>
+      <c r="A3" s="33" t="s">
+        <v>51</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>32</v>
+        <v>52</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="15" t="s">
-        <v>40</v>
+      <c r="A4" s="33" t="s">
+        <v>54</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>43</v>
+        <v>55</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="33" t="s">
         <v>57</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="34" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="33" t="s">
         <v>60</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="34" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="33" t="s">
         <v>63</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="34" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="33" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="34" t="s">
         <v>66</v>
       </c>
     </row>
@@ -919,7 +919,7 @@
       <c r="B9" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="34" t="s">
         <v>69</v>
       </c>
     </row>
@@ -966,15 +966,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
@@ -992,7 +992,7 @@
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1019,16 +1019,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>14</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2">
@@ -1075,7 +1075,7 @@
     </row>
     <row r="5">
       <c r="A5" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>29</v>
@@ -1084,7 +1084,7 @@
         <v>19</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1107,184 +1107,184 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="16"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
+      <c r="A1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
     </row>
     <row r="2">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="15"/>
+      <c r="B2" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="F2" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="G2" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="H2" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="I2" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="J2" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="K2" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="L2" s="16"/>
+      <c r="L2" s="14"/>
     </row>
     <row r="3">
-      <c r="A3" s="16"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="16"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="14"/>
     </row>
     <row r="4">
-      <c r="A4" s="16"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="16"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="14"/>
     </row>
     <row r="5">
-      <c r="A5" s="16"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="16"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="14"/>
     </row>
     <row r="6">
-      <c r="A6" s="16"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="16"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="14"/>
     </row>
     <row r="7">
-      <c r="A7" s="16"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="16"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="14"/>
     </row>
     <row r="8">
-      <c r="A8" s="23"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="16"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="14"/>
     </row>
     <row r="9">
-      <c r="A9" s="27"/>
-      <c r="B9" s="28"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="16"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="25"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="14"/>
     </row>
     <row r="10">
-      <c r="A10" s="27"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="16"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="14"/>
     </row>
     <row r="11">
-      <c r="A11" s="33"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="33"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="30"/>
     </row>
     <row r="12">
-      <c r="A12" s="33"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="33"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1311,54 +1311,54 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="C2" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D2" s="21">
+        <v>3.0</v>
+      </c>
+      <c r="E2" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="21" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="B3" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="C3" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D3" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="E3" s="21" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="D2" s="22">
-        <v>3.0</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="D3" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/files/plex.xlsx
+++ b/files/plex.xlsx
@@ -50,24 +50,39 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="70">
   <si>
+    <t>figure</t>
+  </si>
+  <si>
+    <t>Variables</t>
+  </si>
+  <si>
     <t>table</t>
   </si>
   <si>
-    <t>figure</t>
-  </si>
-  <si>
-    <t>Variables</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
+    <t>Abbreviation</t>
+  </si>
+  <si>
     <t>note</t>
   </si>
   <si>
     <t>dse</t>
   </si>
   <si>
+    <t>Units/Class</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>Bar code</t>
+  </si>
+  <si>
     <t>Información básica para el experimento</t>
   </si>
   <si>
@@ -80,67 +95,103 @@
     <t>vrnmt</t>
   </si>
   <si>
+    <t>bar_code</t>
+  </si>
+  <si>
+    <t>album</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Unique bar code identification for each EU</t>
+  </si>
+  <si>
+    <t>Plots identification</t>
+  </si>
+  <si>
+    <t>plots</t>
+  </si>
+  <si>
+    <t>Unique identification for each EU</t>
+  </si>
+  <si>
     <t>Ejemplo de los nombres de las variables para el libro de colecta de datos.</t>
   </si>
   <si>
-    <t>Abbreviation</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>album</t>
-  </si>
-  <si>
-    <t>Units/Class</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Bar code</t>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>block</t>
+  </si>
+  <si>
+    <t>4 repetitions</t>
+  </si>
+  <si>
+    <t>Imbibition time</t>
+  </si>
+  <si>
+    <t>imb</t>
+  </si>
+  <si>
+    <t>13 imbibition time each 2 hours</t>
   </si>
   <si>
     <t>https://photos.google.com/album/AF1QipMbEdlERX_3ILLPzXk6oniNARKvbKptwn2BK5n4</t>
   </si>
   <si>
-    <t>bar_code</t>
-  </si>
-  <si>
-    <t>Factor</t>
-  </si>
-  <si>
-    <t>Unique bar code identification for each EU</t>
-  </si>
-  <si>
-    <t>Plots identification</t>
-  </si>
-  <si>
-    <t>plots</t>
-  </si>
-  <si>
-    <t>Unique identification for each EU</t>
-  </si>
-  <si>
-    <t>Block</t>
-  </si>
-  <si>
-    <t>block</t>
-  </si>
-  <si>
-    <t>4 repetitions</t>
-  </si>
-  <si>
-    <t>Imbibition time</t>
+    <t>fbinfo</t>
+  </si>
+  <si>
+    <t>Datos mínimos y obligatorios en el hoja de información (info) del libro de campo o *fieldbook*</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/i3lkAnwH6ZppD_lsPomprCZx2McbsMFXnLMNaQltElE5tYCSdck0S5UJhgVii08DmOaNgoxmqzNhg7VrSELwWGvOFhFrT_K06GbloOS1nfq_FAhKFxLCV9u62beo5_xGOTlWVxED1BL1DfQuGL5ZLMLlZy0Ebn_p7MYx7y5APwzDC2ZkcT-KmTiVh93HJqUN4wO-Jexg4yCKSAL8XXgH-2r0qESfdYjN55E4veNCJi6tmT17wUI_zNozh7uPtcGPQ3Xra6YSginN6n1X2w6Pp-to0FqeR_ErZ_Ava-qo7AErLf3TpFAM7ZAC1iEsofKd1x1LtXTNX0C5ICnH2qtheBx05eyJ1nxuQ0E-70qO7VYRT3YlcmP2TSCTE5sBGj81FCi9ib5XJI3ldNLGt4DanB7D8qgIh6lflX_UHJrEOTLLz8k3aa7TI3u0-FG2n7MWztsuBWd1SY10utano04LGIpMkzXS_mBHXJgW5U61_w8IbDCnmC44yjjAv4lESoE0ituYTdUCQs2RvpN1Mk2Zfa2J7bLpleS95Lrk4eUAqBxQ1pQWbKtsh76twUHCf9h12TyUWoiT0LWF0BX-sMVG1Ek_U_MWuClkwBTtZ0ZBpExYjDqDUxnpp-MVAWDbnH0bA9vHBtdVtUlg3vJ_DFpNcK5WEj5XnpdmbZGBAWMRiuDGHJKpsCdvMVg=w1208-h506-no</t>
+  </si>
+  <si>
+    <t>Nombre de la variable</t>
+  </si>
+  <si>
+    <t>Abreviación</t>
+  </si>
+  <si>
+    <t>DDS</t>
+  </si>
+  <si>
+    <t>Muestras</t>
+  </si>
+  <si>
+    <t>Nombre columnas</t>
+  </si>
+  <si>
+    <t>Seed Coat Hardness</t>
+  </si>
+  <si>
+    <t>sch</t>
+  </si>
+  <si>
+    <t>sch_0_1, sch_0_2, sch_0_3</t>
+  </si>
+  <si>
+    <t>Electrical conductivity</t>
+  </si>
+  <si>
+    <t>elc</t>
+  </si>
+  <si>
+    <t>elc_0_1</t>
   </si>
   <si>
     <t>Var_01</t>
   </si>
   <si>
-    <t>imb</t>
-  </si>
-  <si>
-    <t>13 imbibition time each 2 hours</t>
+    <t>fbvar</t>
+  </si>
+  <si>
+    <t>Ejemplo de como debe estructurarse la pestaña de las variables (var)</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/GBgsOysr51d6vzcN1Z02oXfV58t1Mx9mqH0WfcsQoYwGv1FPiOr0Y0Dgl9wj2GOliJx9MGujcuElLIQS4fAJk4vVF92_xOQnPB_WhxX82I65B8VGKg7Gdn7f12I0LR4KK3P7rlEuGjVLBGrsgbvCMEoBAO_9EjtBTdyMbDkSdQBULvSoeb1UQHef7LH1lVrxPT84UhjG9Qd6HaAResPdeWNpI7Ug6AYzfksg_LItypOg0EZpByDh4WnEAFc5nTlZuV_DGPFfGpoeNhBEWbQsZMaiJD9Ow1m-OH69fR_agREMxeFSvIZcbiHgz9iF7zlVTAotViOh6uiLJp7q5Evws4x6y-xUSzs1QxTXzAstBhKJPQKHHkCYcQ4gV39RbBCh1u4T1qc1Uor7ZCtcj70WULRGHn-EWk8M006y3cV8EbNg1glH2rAlQJckkCu1fUGk8JS36d5ajUqkzqOnyc4Dunlk5M0PIYJDxjaRiuxuSgoTfDjSYq68n57SkdWoFAqVBF9flPyDO0bxakZxF4TXRzXP7dsQcEmMnIoTrcfWUNf-B78RZj8b8Fbu01O3Vt80USmDemx6-bDlKF9bQbtvqgJgufvMQk7OY53KrQKcXZfPoEamtI_-2DCNwqM4R4UwEaZoQejjtpdgfjYY11QrxT8cJmO8EUWMh4EyQ4BdTr6mj8h1-cej2mk=w924-h546-no</t>
   </si>
   <si>
     <t>Var_02</t>
@@ -168,57 +219,6 @@
   </si>
   <si>
     <t>Var_10</t>
-  </si>
-  <si>
-    <t>Nombre de la variable</t>
-  </si>
-  <si>
-    <t>Abreviación</t>
-  </si>
-  <si>
-    <t>DDS</t>
-  </si>
-  <si>
-    <t>Muestras</t>
-  </si>
-  <si>
-    <t>Nombre columnas</t>
-  </si>
-  <si>
-    <t>Seed Coat Hardness</t>
-  </si>
-  <si>
-    <t>sch</t>
-  </si>
-  <si>
-    <t>sch_0_1, sch_0_2, sch_0_3</t>
-  </si>
-  <si>
-    <t>Electrical conductivity</t>
-  </si>
-  <si>
-    <t>elc</t>
-  </si>
-  <si>
-    <t>elc_0_1</t>
-  </si>
-  <si>
-    <t>fbinfo</t>
-  </si>
-  <si>
-    <t>Datos mínimos y obligatorios en el hoja de información (info) del libro de campo o *fieldbook*</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/i3lkAnwH6ZppD_lsPomprCZx2McbsMFXnLMNaQltElE5tYCSdck0S5UJhgVii08DmOaNgoxmqzNhg7VrSELwWGvOFhFrT_K06GbloOS1nfq_FAhKFxLCV9u62beo5_xGOTlWVxED1BL1DfQuGL5ZLMLlZy0Ebn_p7MYx7y5APwzDC2ZkcT-KmTiVh93HJqUN4wO-Jexg4yCKSAL8XXgH-2r0qESfdYjN55E4veNCJi6tmT17wUI_zNozh7uPtcGPQ3Xra6YSginN6n1X2w6Pp-to0FqeR_ErZ_Ava-qo7AErLf3TpFAM7ZAC1iEsofKd1x1LtXTNX0C5ICnH2qtheBx05eyJ1nxuQ0E-70qO7VYRT3YlcmP2TSCTE5sBGj81FCi9ib5XJI3ldNLGt4DanB7D8qgIh6lflX_UHJrEOTLLz8k3aa7TI3u0-FG2n7MWztsuBWd1SY10utano04LGIpMkzXS_mBHXJgW5U61_w8IbDCnmC44yjjAv4lESoE0ituYTdUCQs2RvpN1Mk2Zfa2J7bLpleS95Lrk4eUAqBxQ1pQWbKtsh76twUHCf9h12TyUWoiT0LWF0BX-sMVG1Ek_U_MWuClkwBTtZ0ZBpExYjDqDUxnpp-MVAWDbnH0bA9vHBtdVtUlg3vJ_DFpNcK5WEj5XnpdmbZGBAWMRiuDGHJKpsCdvMVg=w1208-h506-no</t>
-  </si>
-  <si>
-    <t>fbvar</t>
-  </si>
-  <si>
-    <t>Ejemplo de como debe estructurarse la pestaña de las variables (var)</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/GBgsOysr51d6vzcN1Z02oXfV58t1Mx9mqH0WfcsQoYwGv1FPiOr0Y0Dgl9wj2GOliJx9MGujcuElLIQS4fAJk4vVF92_xOQnPB_WhxX82I65B8VGKg7Gdn7f12I0LR4KK3P7rlEuGjVLBGrsgbvCMEoBAO_9EjtBTdyMbDkSdQBULvSoeb1UQHef7LH1lVrxPT84UhjG9Qd6HaAResPdeWNpI7Ug6AYzfksg_LItypOg0EZpByDh4WnEAFc5nTlZuV_DGPFfGpoeNhBEWbQsZMaiJD9Ow1m-OH69fR_agREMxeFSvIZcbiHgz9iF7zlVTAotViOh6uiLJp7q5Evws4x6y-xUSzs1QxTXzAstBhKJPQKHHkCYcQ4gV39RbBCh1u4T1qc1Uor7ZCtcj70WULRGHn-EWk8M006y3cV8EbNg1glH2rAlQJckkCu1fUGk8JS36d5ajUqkzqOnyc4Dunlk5M0PIYJDxjaRiuxuSgoTfDjSYq68n57SkdWoFAqVBF9flPyDO0bxakZxF4TXRzXP7dsQcEmMnIoTrcfWUNf-B78RZj8b8Fbu01O3Vt80USmDemx6-bDlKF9bQbtvqgJgufvMQk7OY53KrQKcXZfPoEamtI_-2DCNwqM4R4UwEaZoQejjtpdgfjYY11QrxT8cJmO8EUWMh4EyQ4BdTr6mj8h1-cej2mk=w924-h546-no</t>
   </si>
   <si>
     <t>fbtmpl</t>
@@ -272,13 +272,13 @@
     </font>
     <font>
       <b/>
-    </font>
-    <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -311,14 +311,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF4CCCC"/>
+        <bgColor rgb="FFF4CCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFCE5CD"/>
         <bgColor rgb="FFFCE5CD"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF4CCCC"/>
-        <bgColor rgb="FFF4CCCC"/>
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
@@ -327,12 +333,6 @@
         <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="19">
     <border/>
@@ -509,80 +509,80 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf borderId="3" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="3" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="9" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="10" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="12" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="13" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="14" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="15" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="16" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="17" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="18" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
+    <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="18" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -827,88 +827,88 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="10" t="s">
+      <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="32" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="20" t="s">
         <v>66</v>
       </c>
     </row>
@@ -916,10 +916,10 @@
       <c r="A9" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="20" t="s">
         <v>69</v>
       </c>
     </row>
@@ -962,38 +962,38 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="B2" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
+      <c r="A3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>10</v>
+      <c r="A4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1018,73 +1018,73 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="13" t="s">
+      <c r="C2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="13" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="B3" s="9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="12" t="s">
+      <c r="C3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="13" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="12" t="s">
+      <c r="B4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="C4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="13" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="12" t="s">
+      <c r="B5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>30</v>
+      <c r="C5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1107,184 +1107,184 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="14"/>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
+      <c r="A1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
     </row>
     <row r="2">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="L2" s="14"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="17"/>
     </row>
     <row r="3">
-      <c r="A3" s="14"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="14"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="17"/>
     </row>
     <row r="4">
-      <c r="A4" s="14"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="14"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="17"/>
     </row>
     <row r="5">
-      <c r="A5" s="14"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="14"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="17"/>
     </row>
     <row r="6">
-      <c r="A6" s="14"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="14"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="17"/>
     </row>
     <row r="7">
-      <c r="A7" s="14"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="14"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="17"/>
     </row>
     <row r="8">
-      <c r="A8" s="18"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="14"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="17"/>
     </row>
     <row r="9">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="14"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="28"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="17"/>
     </row>
     <row r="10">
-      <c r="A10" s="24"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="14"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="17"/>
     </row>
     <row r="11">
-      <c r="A11" s="30"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="30"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="33"/>
     </row>
     <row r="12">
-      <c r="A12" s="30"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="30"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1311,54 +1311,54 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="D2" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="19" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="C3" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="D3" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>43</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="D2" s="21">
-        <v>3.0</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="D3" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/files/plex.xlsx
+++ b/files/plex.xlsx
@@ -50,25 +50,49 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="70">
   <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>dse</t>
+  </si>
+  <si>
     <t>figure</t>
   </si>
   <si>
     <t>Variables</t>
   </si>
   <si>
-    <t>table</t>
-  </si>
-  <si>
-    <t>description</t>
+    <t>Información básica para el experimento</t>
+  </si>
+  <si>
+    <t>flb</t>
+  </si>
+  <si>
+    <t>Imagen insertada en el libro de colecta de datos para la toma de información experimental</t>
+  </si>
+  <si>
+    <t>vrnmt</t>
+  </si>
+  <si>
+    <t>Ejemplo de los nombres de las variables para el libro de colecta de datos.</t>
   </si>
   <si>
     <t>Abbreviation</t>
   </si>
   <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>dse</t>
+    <t>url</t>
+  </si>
+  <si>
+    <t>album</t>
+  </si>
+  <si>
+    <t>Var_01</t>
   </si>
   <si>
     <t>Units/Class</t>
@@ -77,30 +101,39 @@
     <t>Description</t>
   </si>
   <si>
-    <t>url</t>
-  </si>
-  <si>
     <t>Bar code</t>
   </si>
   <si>
-    <t>Información básica para el experimento</t>
-  </si>
-  <si>
-    <t>flb</t>
-  </si>
-  <si>
-    <t>Imagen insertada en el libro de colecta de datos para la toma de información experimental</t>
-  </si>
-  <si>
-    <t>vrnmt</t>
+    <t>Var_02</t>
+  </si>
+  <si>
+    <t>Var_03</t>
+  </si>
+  <si>
+    <t>Var_04</t>
+  </si>
+  <si>
+    <t>Var_05</t>
+  </si>
+  <si>
+    <t>Var_06</t>
+  </si>
+  <si>
+    <t>Var_07</t>
+  </si>
+  <si>
+    <t>Var_08</t>
+  </si>
+  <si>
+    <t>Var_09</t>
+  </si>
+  <si>
+    <t>Var_10</t>
   </si>
   <si>
     <t>bar_code</t>
   </si>
   <si>
-    <t>album</t>
-  </si>
-  <si>
     <t>Factor</t>
   </si>
   <si>
@@ -116,9 +149,6 @@
     <t>Unique identification for each EU</t>
   </si>
   <si>
-    <t>Ejemplo de los nombres de las variables para el libro de colecta de datos.</t>
-  </si>
-  <si>
     <t>Block</t>
   </si>
   <si>
@@ -182,9 +212,6 @@
     <t>elc_0_1</t>
   </si>
   <si>
-    <t>Var_01</t>
-  </si>
-  <si>
     <t>fbvar</t>
   </si>
   <si>
@@ -192,33 +219,6 @@
   </si>
   <si>
     <t>https://lh3.googleusercontent.com/GBgsOysr51d6vzcN1Z02oXfV58t1Mx9mqH0WfcsQoYwGv1FPiOr0Y0Dgl9wj2GOliJx9MGujcuElLIQS4fAJk4vVF92_xOQnPB_WhxX82I65B8VGKg7Gdn7f12I0LR4KK3P7rlEuGjVLBGrsgbvCMEoBAO_9EjtBTdyMbDkSdQBULvSoeb1UQHef7LH1lVrxPT84UhjG9Qd6HaAResPdeWNpI7Ug6AYzfksg_LItypOg0EZpByDh4WnEAFc5nTlZuV_DGPFfGpoeNhBEWbQsZMaiJD9Ow1m-OH69fR_agREMxeFSvIZcbiHgz9iF7zlVTAotViOh6uiLJp7q5Evws4x6y-xUSzs1QxTXzAstBhKJPQKHHkCYcQ4gV39RbBCh1u4T1qc1Uor7ZCtcj70WULRGHn-EWk8M006y3cV8EbNg1glH2rAlQJckkCu1fUGk8JS36d5ajUqkzqOnyc4Dunlk5M0PIYJDxjaRiuxuSgoTfDjSYq68n57SkdWoFAqVBF9flPyDO0bxakZxF4TXRzXP7dsQcEmMnIoTrcfWUNf-B78RZj8b8Fbu01O3Vt80USmDemx6-bDlKF9bQbtvqgJgufvMQk7OY53KrQKcXZfPoEamtI_-2DCNwqM4R4UwEaZoQejjtpdgfjYY11QrxT8cJmO8EUWMh4EyQ4BdTr6mj8h1-cej2mk=w924-h546-no</t>
-  </si>
-  <si>
-    <t>Var_02</t>
-  </si>
-  <si>
-    <t>Var_03</t>
-  </si>
-  <si>
-    <t>Var_04</t>
-  </si>
-  <si>
-    <t>Var_05</t>
-  </si>
-  <si>
-    <t>Var_06</t>
-  </si>
-  <si>
-    <t>Var_07</t>
-  </si>
-  <si>
-    <t>Var_08</t>
-  </si>
-  <si>
-    <t>Var_09</t>
-  </si>
-  <si>
-    <t>Var_10</t>
   </si>
   <si>
     <t>fbtmpl</t>
@@ -272,17 +272,17 @@
     </font>
     <font>
       <b/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
     </font>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font/>
+    <font>
+      <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <name val="Arial"/>
     </font>
@@ -311,14 +311,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF4CCCC"/>
-        <bgColor rgb="FFF4CCCC"/>
+        <fgColor rgb="FFFCE5CD"/>
+        <bgColor rgb="FFFCE5CD"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFCE5CD"/>
-        <bgColor rgb="FFFCE5CD"/>
+        <fgColor rgb="FFF4CCCC"/>
+        <bgColor rgb="FFF4CCCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -351,6 +351,17 @@
       </bottom>
     </border>
     <border>
+      <right style="double">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="double">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+    </border>
+    <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -362,6 +373,20 @@
       </bottom>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="double">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -377,31 +402,6 @@
         <color rgb="FF000000"/>
       </right>
       <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="double">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="double">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="double">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="double">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF000000"/>
       </bottom>
     </border>
@@ -509,80 +509,80 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="17" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="16" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="18" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="18" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -827,88 +827,88 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>9</v>
+      <c r="A1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="14" t="s">
-        <v>29</v>
+      <c r="A2" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="19" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>32</v>
+      <c r="A3" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>47</v>
+      <c r="A4" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="33" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="33" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="33" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="20" t="s">
+      <c r="A8" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="33" t="s">
         <v>66</v>
       </c>
     </row>
@@ -916,10 +916,10 @@
       <c r="A9" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="33" t="s">
         <v>69</v>
       </c>
     </row>
@@ -962,38 +962,38 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>13</v>
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>22</v>
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1018,73 +1018,73 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>8</v>
+      <c r="A1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="A2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>18</v>
+      <c r="B2" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>21</v>
+      <c r="A3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>25</v>
+      <c r="A4" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="9" t="s">
+      <c r="A5" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>28</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1107,159 +1107,159 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="17"/>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
     </row>
     <row r="2">
-      <c r="A2" s="19"/>
-      <c r="B2" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="J2" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="K2" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="L2" s="17"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="7"/>
     </row>
     <row r="3">
-      <c r="A3" s="17"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="17"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="7"/>
     </row>
     <row r="4">
-      <c r="A4" s="17"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="17"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="7"/>
     </row>
     <row r="5">
-      <c r="A5" s="17"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="17"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="7"/>
     </row>
     <row r="6">
-      <c r="A6" s="17"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="17"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="7"/>
     </row>
     <row r="7">
-      <c r="A7" s="17"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="17"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="7"/>
     </row>
     <row r="8">
-      <c r="A8" s="23"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="17"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="7"/>
     </row>
     <row r="9">
-      <c r="A9" s="27"/>
-      <c r="B9" s="28"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="17"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="27"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="7"/>
     </row>
     <row r="10">
-      <c r="A10" s="27"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="17"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="7"/>
     </row>
     <row r="11">
-      <c r="A11" s="33"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="34"/>
       <c r="C11" s="34"/>
       <c r="D11" s="34"/>
@@ -1270,10 +1270,10 @@
       <c r="I11" s="34"/>
       <c r="J11" s="34"/>
       <c r="K11" s="34"/>
-      <c r="L11" s="33"/>
+      <c r="L11" s="32"/>
     </row>
     <row r="12">
-      <c r="A12" s="33"/>
+      <c r="A12" s="32"/>
       <c r="B12" s="34"/>
       <c r="C12" s="34"/>
       <c r="D12" s="34"/>
@@ -1284,7 +1284,7 @@
       <c r="I12" s="34"/>
       <c r="J12" s="34"/>
       <c r="K12" s="34"/>
-      <c r="L12" s="33"/>
+      <c r="L12" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1311,54 +1311,54 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>37</v>
+      <c r="A1" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="18">
+      <c r="A2" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="25">
         <v>0.0</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="25">
         <v>3.0</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>40</v>
+      <c r="E2" s="25" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="18">
+      <c r="A3" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="25">
         <v>0.0</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="25">
         <v>1.0</v>
       </c>
-      <c r="E3" s="18" t="s">
-        <v>43</v>
+      <c r="E3" s="25" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/files/plex.xlsx
+++ b/files/plex.xlsx
@@ -53,19 +53,22 @@
     <t>table</t>
   </si>
   <si>
+    <t>figure</t>
+  </si>
+  <si>
     <t>description</t>
   </si>
   <si>
     <t>note</t>
   </si>
   <si>
+    <t>Variables</t>
+  </si>
+  <si>
     <t>dse</t>
   </si>
   <si>
-    <t>figure</t>
-  </si>
-  <si>
-    <t>Variables</t>
+    <t>Abbreviation</t>
   </si>
   <si>
     <t>Información básica para el experimento</t>
@@ -80,28 +83,67 @@
     <t>vrnmt</t>
   </si>
   <si>
+    <t>Units/Class</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
     <t>Ejemplo de los nombres de las variables para el libro de colecta de datos.</t>
   </si>
   <si>
-    <t>Abbreviation</t>
-  </si>
-  <si>
-    <t>url</t>
+    <t>Bar code</t>
   </si>
   <si>
     <t>album</t>
   </si>
   <si>
+    <t>https://photos.google.com/album/AF1QipMbEdlERX_3ILLPzXk6oniNARKvbKptwn2BK5n4</t>
+  </si>
+  <si>
+    <t>bar_code</t>
+  </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Unique bar code identification for each EU</t>
+  </si>
+  <si>
+    <t>Plots identification</t>
+  </si>
+  <si>
+    <t>plots</t>
+  </si>
+  <si>
     <t>Var_01</t>
   </si>
   <si>
-    <t>Units/Class</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Bar code</t>
+    <t>Unique identification for each EU</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>block</t>
+  </si>
+  <si>
+    <t>fbinfo</t>
+  </si>
+  <si>
+    <t>4 repetitions</t>
+  </si>
+  <si>
+    <t>Imbibition time</t>
+  </si>
+  <si>
+    <t>imb</t>
+  </si>
+  <si>
+    <t>13 imbibition time each 2 hours</t>
   </si>
   <si>
     <t>Var_02</t>
@@ -113,9 +155,15 @@
     <t>Var_04</t>
   </si>
   <si>
+    <t>Datos mínimos y obligatorios en el hoja de información (info) del libro de campo o *fieldbook*</t>
+  </si>
+  <si>
     <t>Var_05</t>
   </si>
   <si>
+    <t>https://lh3.googleusercontent.com/i3lkAnwH6ZppD_lsPomprCZx2McbsMFXnLMNaQltElE5tYCSdck0S5UJhgVii08DmOaNgoxmqzNhg7VrSELwWGvOFhFrT_K06GbloOS1nfq_FAhKFxLCV9u62beo5_xGOTlWVxED1BL1DfQuGL5ZLMLlZy0Ebn_p7MYx7y5APwzDC2ZkcT-KmTiVh93HJqUN4wO-Jexg4yCKSAL8XXgH-2r0qESfdYjN55E4veNCJi6tmT17wUI_zNozh7uPtcGPQ3Xra6YSginN6n1X2w6Pp-to0FqeR_ErZ_Ava-qo7AErLf3TpFAM7ZAC1iEsofKd1x1LtXTNX0C5ICnH2qtheBx05eyJ1nxuQ0E-70qO7VYRT3YlcmP2TSCTE5sBGj81FCi9ib5XJI3ldNLGt4DanB7D8qgIh6lflX_UHJrEOTLLz8k3aa7TI3u0-FG2n7MWztsuBWd1SY10utano04LGIpMkzXS_mBHXJgW5U61_w8IbDCnmC44yjjAv4lESoE0ituYTdUCQs2RvpN1Mk2Zfa2J7bLpleS95Lrk4eUAqBxQ1pQWbKtsh76twUHCf9h12TyUWoiT0LWF0BX-sMVG1Ek_U_MWuClkwBTtZ0ZBpExYjDqDUxnpp-MVAWDbnH0bA9vHBtdVtUlg3vJ_DFpNcK5WEj5XnpdmbZGBAWMRiuDGHJKpsCdvMVg=w1208-h506-no</t>
+  </si>
+  <si>
     <t>Var_06</t>
   </si>
   <si>
@@ -131,52 +179,13 @@
     <t>Var_10</t>
   </si>
   <si>
-    <t>bar_code</t>
-  </si>
-  <si>
-    <t>Factor</t>
-  </si>
-  <si>
-    <t>Unique bar code identification for each EU</t>
-  </si>
-  <si>
-    <t>Plots identification</t>
-  </si>
-  <si>
-    <t>plots</t>
-  </si>
-  <si>
-    <t>Unique identification for each EU</t>
-  </si>
-  <si>
-    <t>Block</t>
-  </si>
-  <si>
-    <t>block</t>
-  </si>
-  <si>
-    <t>4 repetitions</t>
-  </si>
-  <si>
-    <t>Imbibition time</t>
-  </si>
-  <si>
-    <t>imb</t>
-  </si>
-  <si>
-    <t>13 imbibition time each 2 hours</t>
-  </si>
-  <si>
-    <t>https://photos.google.com/album/AF1QipMbEdlERX_3ILLPzXk6oniNARKvbKptwn2BK5n4</t>
-  </si>
-  <si>
-    <t>fbinfo</t>
-  </si>
-  <si>
-    <t>Datos mínimos y obligatorios en el hoja de información (info) del libro de campo o *fieldbook*</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/i3lkAnwH6ZppD_lsPomprCZx2McbsMFXnLMNaQltElE5tYCSdck0S5UJhgVii08DmOaNgoxmqzNhg7VrSELwWGvOFhFrT_K06GbloOS1nfq_FAhKFxLCV9u62beo5_xGOTlWVxED1BL1DfQuGL5ZLMLlZy0Ebn_p7MYx7y5APwzDC2ZkcT-KmTiVh93HJqUN4wO-Jexg4yCKSAL8XXgH-2r0qESfdYjN55E4veNCJi6tmT17wUI_zNozh7uPtcGPQ3Xra6YSginN6n1X2w6Pp-to0FqeR_ErZ_Ava-qo7AErLf3TpFAM7ZAC1iEsofKd1x1LtXTNX0C5ICnH2qtheBx05eyJ1nxuQ0E-70qO7VYRT3YlcmP2TSCTE5sBGj81FCi9ib5XJI3ldNLGt4DanB7D8qgIh6lflX_UHJrEOTLLz8k3aa7TI3u0-FG2n7MWztsuBWd1SY10utano04LGIpMkzXS_mBHXJgW5U61_w8IbDCnmC44yjjAv4lESoE0ituYTdUCQs2RvpN1Mk2Zfa2J7bLpleS95Lrk4eUAqBxQ1pQWbKtsh76twUHCf9h12TyUWoiT0LWF0BX-sMVG1Ek_U_MWuClkwBTtZ0ZBpExYjDqDUxnpp-MVAWDbnH0bA9vHBtdVtUlg3vJ_DFpNcK5WEj5XnpdmbZGBAWMRiuDGHJKpsCdvMVg=w1208-h506-no</t>
+    <t>fbvar</t>
+  </si>
+  <si>
+    <t>Ejemplo de como debe estructurarse la pestaña de las variables (var)</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/GBgsOysr51d6vzcN1Z02oXfV58t1Mx9mqH0WfcsQoYwGv1FPiOr0Y0Dgl9wj2GOliJx9MGujcuElLIQS4fAJk4vVF92_xOQnPB_WhxX82I65B8VGKg7Gdn7f12I0LR4KK3P7rlEuGjVLBGrsgbvCMEoBAO_9EjtBTdyMbDkSdQBULvSoeb1UQHef7LH1lVrxPT84UhjG9Qd6HaAResPdeWNpI7Ug6AYzfksg_LItypOg0EZpByDh4WnEAFc5nTlZuV_DGPFfGpoeNhBEWbQsZMaiJD9Ow1m-OH69fR_agREMxeFSvIZcbiHgz9iF7zlVTAotViOh6uiLJp7q5Evws4x6y-xUSzs1QxTXzAstBhKJPQKHHkCYcQ4gV39RbBCh1u4T1qc1Uor7ZCtcj70WULRGHn-EWk8M006y3cV8EbNg1glH2rAlQJckkCu1fUGk8JS36d5ajUqkzqOnyc4Dunlk5M0PIYJDxjaRiuxuSgoTfDjSYq68n57SkdWoFAqVBF9flPyDO0bxakZxF4TXRzXP7dsQcEmMnIoTrcfWUNf-B78RZj8b8Fbu01O3Vt80USmDemx6-bDlKF9bQbtvqgJgufvMQk7OY53KrQKcXZfPoEamtI_-2DCNwqM4R4UwEaZoQejjtpdgfjYY11QrxT8cJmO8EUWMh4EyQ4BdTr6mj8h1-cej2mk=w924-h546-no</t>
   </si>
   <si>
     <t>Nombre de la variable</t>
@@ -210,15 +219,6 @@
   </si>
   <si>
     <t>elc_0_1</t>
-  </si>
-  <si>
-    <t>fbvar</t>
-  </si>
-  <si>
-    <t>Ejemplo de como debe estructurarse la pestaña de las variables (var)</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/GBgsOysr51d6vzcN1Z02oXfV58t1Mx9mqH0WfcsQoYwGv1FPiOr0Y0Dgl9wj2GOliJx9MGujcuElLIQS4fAJk4vVF92_xOQnPB_WhxX82I65B8VGKg7Gdn7f12I0LR4KK3P7rlEuGjVLBGrsgbvCMEoBAO_9EjtBTdyMbDkSdQBULvSoeb1UQHef7LH1lVrxPT84UhjG9Qd6HaAResPdeWNpI7Ug6AYzfksg_LItypOg0EZpByDh4WnEAFc5nTlZuV_DGPFfGpoeNhBEWbQsZMaiJD9Ow1m-OH69fR_agREMxeFSvIZcbiHgz9iF7zlVTAotViOh6uiLJp7q5Evws4x6y-xUSzs1QxTXzAstBhKJPQKHHkCYcQ4gV39RbBCh1u4T1qc1Uor7ZCtcj70WULRGHn-EWk8M006y3cV8EbNg1glH2rAlQJckkCu1fUGk8JS36d5ajUqkzqOnyc4Dunlk5M0PIYJDxjaRiuxuSgoTfDjSYq68n57SkdWoFAqVBF9flPyDO0bxakZxF4TXRzXP7dsQcEmMnIoTrcfWUNf-B78RZj8b8Fbu01O3Vt80USmDemx6-bDlKF9bQbtvqgJgufvMQk7OY53KrQKcXZfPoEamtI_-2DCNwqM4R4UwEaZoQejjtpdgfjYY11QrxT8cJmO8EUWMh4EyQ4BdTr6mj8h1-cej2mk=w924-h546-no</t>
   </si>
   <si>
     <t>fbtmpl</t>
@@ -274,15 +274,15 @@
       <b/>
     </font>
     <font>
+      <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font/>
-    <font>
-      <b/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
     <font>
       <name val="Arial"/>
     </font>
@@ -323,14 +323,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -351,6 +351,28 @@
       </bottom>
     </border>
     <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <right style="double">
         <color rgb="FFFFFFFF"/>
       </right>
@@ -365,9 +387,6 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -383,25 +402,6 @@
         <color rgb="FF000000"/>
       </top>
       <bottom style="double">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
     </border>
@@ -513,76 +513,76 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="3" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="5" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="17" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="10" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="12" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="13" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="14" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="15" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="16" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="18" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -827,88 +827,88 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="8" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="19" t="s">
-        <v>39</v>
+      <c r="A2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="16" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>42</v>
+      <c r="A3" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>56</v>
+      <c r="A4" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="20" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="20" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="20" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="20" t="s">
         <v>66</v>
       </c>
     </row>
@@ -916,10 +916,10 @@
       <c r="A9" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="20" t="s">
         <v>69</v>
       </c>
     </row>
@@ -966,34 +966,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="7" t="s">
         <v>10</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1018,73 +1018,73 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="11" t="s">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="13" t="s">
-        <v>17</v>
-      </c>
       <c r="B2" s="14" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C2" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="14" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" s="12" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="C5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>31</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1107,159 +1107,159 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
     </row>
     <row r="2">
-      <c r="A2" s="10"/>
-      <c r="B2" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="12" t="s">
+      <c r="A2" s="15"/>
+      <c r="B2" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="7"/>
+      <c r="C2" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="13"/>
     </row>
     <row r="3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="7"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="13"/>
     </row>
     <row r="4">
-      <c r="A4" s="7"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="7"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="13"/>
     </row>
     <row r="5">
-      <c r="A5" s="7"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="7"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="13"/>
     </row>
     <row r="6">
-      <c r="A6" s="7"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="7"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="13"/>
     </row>
     <row r="7">
-      <c r="A7" s="7"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="7"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="13"/>
     </row>
     <row r="8">
-      <c r="A8" s="18"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="7"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="13"/>
     </row>
     <row r="9">
-      <c r="A9" s="26"/>
-      <c r="B9" s="27"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="7"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="28"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="13"/>
     </row>
     <row r="10">
-      <c r="A10" s="26"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="7"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="13"/>
     </row>
     <row r="11">
-      <c r="A11" s="32"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="34"/>
       <c r="C11" s="34"/>
       <c r="D11" s="34"/>
@@ -1270,10 +1270,10 @@
       <c r="I11" s="34"/>
       <c r="J11" s="34"/>
       <c r="K11" s="34"/>
-      <c r="L11" s="32"/>
+      <c r="L11" s="33"/>
     </row>
     <row r="12">
-      <c r="A12" s="32"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="34"/>
       <c r="C12" s="34"/>
       <c r="D12" s="34"/>
@@ -1284,7 +1284,7 @@
       <c r="I12" s="34"/>
       <c r="J12" s="34"/>
       <c r="K12" s="34"/>
-      <c r="L12" s="32"/>
+      <c r="L12" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1311,54 +1311,54 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="23" t="s">
+      <c r="A1" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="B1" s="21" t="s">
         <v>47</v>
       </c>
+      <c r="C1" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="25">
+      <c r="A2" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="22">
         <v>0.0</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D2" s="22">
         <v>3.0</v>
       </c>
-      <c r="E2" s="25" t="s">
-        <v>50</v>
+      <c r="E2" s="22" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="25">
+      <c r="A3" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="22">
         <v>0.0</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="22">
         <v>1.0</v>
       </c>
-      <c r="E3" s="25" t="s">
-        <v>53</v>
+      <c r="E3" s="22" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
